--- a/文档资料/车辆管理数据库.xlsx
+++ b/文档资料/车辆管理数据库.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="405">
   <si>
     <t>序号</t>
   </si>
@@ -128,9 +128,6 @@
     <t>单位id</t>
   </si>
   <si>
-    <t>principal_id</t>
-  </si>
-  <si>
     <t>单位负责人id</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
     <t>数据字典里获取</t>
   </si>
   <si>
-    <t>createPersonId</t>
-  </si>
-  <si>
     <t>创建人员id</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>pri</t>
   </si>
   <si>
-    <t>terminalNo</t>
-  </si>
-  <si>
     <t>终端编号</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
   </si>
   <si>
     <t>登录名</t>
-  </si>
-  <si>
-    <t>PassWord</t>
   </si>
   <si>
     <t>登录密码</t>
@@ -1236,6 +1224,51 @@
   </si>
   <si>
     <t>r_longitude</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>terminalNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assword</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1243,7 +1276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1314,14 @@
     <font>
       <sz val="9"/>
       <name val="黑体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1507,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1762,6 +1803,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1792,36 +1926,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,69 +1935,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2283,8 +2328,8 @@
   <dimension ref="A1:W233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2337,17 +2382,17 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="109"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
       <c r="J2" s="37"/>
       <c r="K2" s="38" t="s">
         <v>12</v>
@@ -2367,20 +2412,20 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="116">
+      <c r="A4" s="128">
         <v>2</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="128" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>15</v>
@@ -2400,9 +2445,9 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="10">
         <v>2</v>
       </c>
@@ -2425,9 +2470,9 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
       <c r="D6" s="10">
         <v>3</v>
       </c>
@@ -2450,9 +2495,9 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="13">
         <v>4</v>
       </c>
@@ -2497,20 +2542,20 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="118">
+      <c r="A10" s="126">
         <v>3</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="126" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>32</v>
@@ -2528,17 +2573,17 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="10">
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>16</v>
@@ -2561,20 +2606,20 @@
       <c r="W11" s="44"/>
     </row>
     <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
       <c r="D12" s="10">
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -2594,20 +2639,20 @@
       <c r="W12" s="44"/>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="10">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2627,20 +2672,20 @@
       <c r="W13" s="44"/>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
       <c r="D14" s="10">
         <v>5</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="G14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -2660,17 +2705,17 @@
       <c r="W14" s="44"/>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
       <c r="D15" s="21">
         <v>6</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>29</v>
@@ -2695,24 +2740,24 @@
       <c r="W15" s="44"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="24">
         <v>7</v>
       </c>
       <c r="E16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="47"/>
       <c r="K16" s="45"/>
@@ -2780,26 +2825,26 @@
       <c r="W18" s="44"/>
     </row>
     <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="C19" s="126" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="118" t="s">
-        <v>50</v>
       </c>
       <c r="D19" s="21">
         <v>1</v>
       </c>
       <c r="E19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="G19" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>17</v>
@@ -2823,20 +2868,20 @@
       <c r="W19" s="44"/>
     </row>
     <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="121"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="127"/>
       <c r="D20" s="10">
         <v>2</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="G20" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>17</v>
@@ -2845,7 +2890,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="45"/>
       <c r="L20" s="44"/>
@@ -2862,20 +2907,20 @@
       <c r="W20" s="44"/>
     </row>
     <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="122"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="10">
         <v>3</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>17</v>
@@ -2884,7 +2929,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="45"/>
       <c r="L21" s="44"/>
@@ -2951,26 +2996,26 @@
       <c r="W23" s="44"/>
     </row>
     <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="118" t="s">
+      <c r="A24" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="126" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="118" t="s">
-        <v>60</v>
       </c>
       <c r="D24" s="21">
         <v>1</v>
       </c>
       <c r="E24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="G24" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>17</v>
@@ -2994,20 +3039,20 @@
       <c r="W24" s="44"/>
     </row>
     <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="121"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
       <c r="D25" s="21">
         <v>2</v>
       </c>
       <c r="E25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="G25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>17</v>
@@ -3016,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="J25" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="45"/>
       <c r="L25" s="44"/>
@@ -3033,20 +3078,20 @@
       <c r="W25" s="44"/>
     </row>
     <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="122"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="21">
         <v>3</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>17</v>
@@ -3055,7 +3100,7 @@
         <v>18</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" s="45"/>
       <c r="L26" s="44"/>
@@ -3122,26 +3167,26 @@
       <c r="W28" s="44"/>
     </row>
     <row r="29" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="118" t="s">
+      <c r="A29" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="126" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>64</v>
       </c>
       <c r="D29" s="21">
         <v>1</v>
       </c>
       <c r="E29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>17</v>
@@ -3165,20 +3210,20 @@
       <c r="W29" s="44"/>
     </row>
     <row r="30" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="121"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
       <c r="D30" s="21">
         <v>2</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>17</v>
@@ -3187,7 +3232,7 @@
         <v>18</v>
       </c>
       <c r="J30" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" s="45"/>
       <c r="L30" s="44"/>
@@ -3204,20 +3249,20 @@
       <c r="W30" s="44"/>
     </row>
     <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="122"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+      <c r="A31" s="137"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
       <c r="D31" s="21">
         <v>3</v>
       </c>
       <c r="E31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="22" t="s">
-        <v>66</v>
-      </c>
       <c r="G31" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>17</v>
@@ -3226,7 +3271,7 @@
         <v>18</v>
       </c>
       <c r="J31" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" s="45"/>
       <c r="L31" s="44"/>
@@ -3293,26 +3338,26 @@
       <c r="W33" s="44"/>
     </row>
     <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="118" t="s">
+      <c r="A34" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="126" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" s="118" t="s">
-        <v>69</v>
       </c>
       <c r="D34" s="21">
         <v>1</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>17</v>
@@ -3336,20 +3381,20 @@
       <c r="W34" s="44"/>
     </row>
     <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="121"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="21">
         <v>2</v>
       </c>
       <c r="E35" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="G35" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
@@ -3371,20 +3416,20 @@
       <c r="W35" s="44"/>
     </row>
     <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="121"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
       <c r="D36" s="21">
         <v>3</v>
       </c>
       <c r="E36" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12" t="s">
@@ -3406,20 +3451,20 @@
       <c r="W36" s="44"/>
     </row>
     <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="121"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
       <c r="D37" s="21">
         <v>4</v>
       </c>
       <c r="E37" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="G37" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -3439,27 +3484,27 @@
       <c r="W37" s="44"/>
     </row>
     <row r="38" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="121"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
+      <c r="A38" s="136"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
       <c r="D38" s="21">
         <v>5</v>
       </c>
       <c r="E38" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>79</v>
-      </c>
       <c r="G38" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K38" s="45"/>
       <c r="L38" s="44"/>
@@ -3476,17 +3521,17 @@
       <c r="W38" s="44"/>
     </row>
     <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="121"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
       <c r="D39" s="21">
         <v>6</v>
       </c>
       <c r="E39" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>29</v>
@@ -3511,17 +3556,17 @@
       <c r="W39" s="44"/>
     </row>
     <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="121"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
+      <c r="A40" s="136"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
       <c r="D40" s="21">
         <v>7</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>16</v>
@@ -3546,17 +3591,17 @@
       <c r="W40" s="44"/>
     </row>
     <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="122"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="137"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="21">
         <v>8</v>
       </c>
       <c r="E41" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>16</v>
@@ -3631,29 +3676,29 @@
       <c r="W43" s="44"/>
     </row>
     <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="118" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="118" t="s">
-        <v>84</v>
+      <c r="A44" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="126" t="s">
+        <v>82</v>
       </c>
       <c r="D44" s="21">
         <v>1</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>18</v>
@@ -3674,20 +3719,20 @@
       <c r="W44" s="44"/>
     </row>
     <row r="45" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="121"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
       <c r="D45" s="21">
         <v>2</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>87</v>
+      <c r="E45" s="150" t="s">
+        <v>403</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12" t="s">
@@ -3695,7 +3740,7 @@
       </c>
       <c r="J45" s="48"/>
       <c r="K45" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L45" s="44"/>
       <c r="M45" s="44"/>
@@ -3711,20 +3756,20 @@
       <c r="W45" s="44"/>
     </row>
     <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="122"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="116"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
       <c r="D46" s="21">
         <v>3</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12" t="s">
@@ -3732,7 +3777,7 @@
       </c>
       <c r="J46" s="48"/>
       <c r="K46" s="45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L46" s="44"/>
       <c r="M46" s="44"/>
@@ -3798,23 +3843,23 @@
       <c r="W48" s="44"/>
     </row>
     <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="117">
+      <c r="A49" s="129">
         <v>5</v>
       </c>
-      <c r="B49" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="117" t="s">
-        <v>95</v>
+      <c r="B49" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="129" t="s">
+        <v>92</v>
       </c>
       <c r="D49" s="10">
         <v>1</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>16</v>
@@ -3841,20 +3886,20 @@
       <c r="W49" s="44"/>
     </row>
     <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="117"/>
-      <c r="B50" s="117"/>
-      <c r="C50" s="117"/>
+      <c r="A50" s="129"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="10">
         <v>2</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
@@ -3874,20 +3919,20 @@
       <c r="W50" s="44"/>
     </row>
     <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="117"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
+      <c r="A51" s="129"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="10">
         <v>3</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -3907,20 +3952,20 @@
       <c r="W51" s="44"/>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="117"/>
-      <c r="B52" s="117"/>
-      <c r="C52" s="117"/>
+      <c r="A52" s="129"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="10">
         <v>4</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -3940,20 +3985,20 @@
       <c r="W52" s="44"/>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="117"/>
-      <c r="B53" s="117"/>
-      <c r="C53" s="117"/>
+      <c r="A53" s="129"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="10">
         <v>5</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -3973,20 +4018,20 @@
       <c r="W53" s="44"/>
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="117"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="117"/>
+      <c r="A54" s="129"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="10">
         <v>6</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -4006,20 +4051,20 @@
       <c r="W54" s="44"/>
     </row>
     <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="117"/>
-      <c r="B55" s="117"/>
-      <c r="C55" s="117"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="10">
         <v>7</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -4039,17 +4084,17 @@
       <c r="W55" s="44"/>
     </row>
     <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="117"/>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
+      <c r="A56" s="129"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="10">
         <v>9</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>29</v>
@@ -4072,17 +4117,17 @@
       <c r="W56" s="44"/>
     </row>
     <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="117"/>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="20">
         <v>10</v>
       </c>
       <c r="E57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>29</v>
@@ -4107,17 +4152,17 @@
       <c r="W57" s="44"/>
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="31">
         <v>11</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>22</v>
@@ -4142,20 +4187,20 @@
       <c r="W58" s="44"/>
     </row>
     <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="31">
         <v>12</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>112</v>
+      <c r="E59" s="151" t="s">
+        <v>404</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11" t="s">
@@ -4163,7 +4208,7 @@
       </c>
       <c r="J59" s="47"/>
       <c r="K59" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L59" s="44"/>
       <c r="M59" s="44"/>
@@ -4229,23 +4274,23 @@
       <c r="W61" s="44"/>
     </row>
     <row r="62" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="123">
+      <c r="A62" s="124">
         <v>1</v>
       </c>
-      <c r="B62" s="123" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="123" t="s">
-        <v>116</v>
+      <c r="B62" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="124" t="s">
+        <v>112</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>16</v>
@@ -4257,8 +4302,8 @@
         <v>18</v>
       </c>
       <c r="J62" s="47"/>
-      <c r="K62" s="145" t="s">
-        <v>119</v>
+      <c r="K62" s="110" t="s">
+        <v>115</v>
       </c>
       <c r="L62" s="44"/>
       <c r="M62" s="44"/>
@@ -4274,27 +4319,27 @@
       <c r="W62" s="44"/>
     </row>
     <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="124"/>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
+      <c r="A63" s="123"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="33">
         <v>2</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63" s="35"/>
       <c r="I63" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="47"/>
-      <c r="K63" s="146"/>
+      <c r="K63" s="111"/>
       <c r="L63" s="44"/>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
@@ -4309,27 +4354,27 @@
       <c r="W63" s="44"/>
     </row>
     <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="124"/>
-      <c r="B64" s="124"/>
-      <c r="C64" s="124"/>
+      <c r="A64" s="123"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="33">
         <v>4</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H64" s="35"/>
       <c r="I64" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J64" s="47"/>
-      <c r="K64" s="146"/>
+      <c r="K64" s="111"/>
       <c r="L64" s="44"/>
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
@@ -4344,27 +4389,27 @@
       <c r="W64" s="44"/>
     </row>
     <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="124"/>
-      <c r="B65" s="124"/>
-      <c r="C65" s="124"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="33">
         <v>5</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H65" s="35"/>
       <c r="I65" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="47"/>
-      <c r="K65" s="146"/>
+      <c r="K65" s="111"/>
       <c r="L65" s="44"/>
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
@@ -4379,27 +4424,27 @@
       <c r="W65" s="44"/>
     </row>
     <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="124"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
+      <c r="A66" s="123"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="33">
         <v>6</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H66" s="35"/>
       <c r="I66" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="47"/>
-      <c r="K66" s="147"/>
+      <c r="K66" s="112"/>
       <c r="L66" s="44"/>
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
@@ -4414,20 +4459,20 @@
       <c r="W66" s="44"/>
     </row>
     <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="124"/>
-      <c r="B67" s="124"/>
-      <c r="C67" s="124"/>
+      <c r="A67" s="123"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="33">
         <v>7</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
@@ -4454,21 +4499,21 @@
         <v>8</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="65" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K68" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L68" s="44"/>
       <c r="M68" s="44"/>
@@ -4534,23 +4579,23 @@
       <c r="W70" s="44"/>
     </row>
     <row r="71" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="140" t="s">
-        <v>135</v>
+      <c r="A71" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="130" t="s">
+        <v>131</v>
       </c>
       <c r="D71" s="35">
         <v>1</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>16</v>
@@ -4563,7 +4608,7 @@
       </c>
       <c r="J71" s="47"/>
       <c r="K71" s="45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L71" s="44"/>
       <c r="M71" s="44"/>
@@ -4579,28 +4624,28 @@
       <c r="W71" s="44"/>
     </row>
     <row r="72" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="127"/>
-      <c r="B72" s="124"/>
-      <c r="C72" s="141"/>
+      <c r="A72" s="148"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="131"/>
       <c r="D72" s="35">
         <v>2</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H72" s="35"/>
       <c r="I72" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J72" s="47"/>
-      <c r="K72" s="145" t="s">
-        <v>140</v>
+      <c r="K72" s="110" t="s">
+        <v>136</v>
       </c>
       <c r="L72" s="44"/>
       <c r="M72" s="44"/>
@@ -4616,27 +4661,27 @@
       <c r="W72" s="44"/>
     </row>
     <row r="73" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="127"/>
-      <c r="B73" s="124"/>
-      <c r="C73" s="141"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="131"/>
       <c r="D73" s="35">
         <v>3</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H73" s="35"/>
       <c r="I73" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J73" s="47"/>
-      <c r="K73" s="147"/>
+      <c r="K73" s="112"/>
       <c r="L73" s="44"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
@@ -4651,17 +4696,17 @@
       <c r="W73" s="44"/>
     </row>
     <row r="74" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="128"/>
+      <c r="A74" s="149"/>
       <c r="B74" s="125"/>
-      <c r="C74" s="142"/>
+      <c r="C74" s="132"/>
       <c r="D74" s="11">
         <v>4</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>16</v>
@@ -4671,7 +4716,7 @@
         <v>18</v>
       </c>
       <c r="J74" s="47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K74" s="63"/>
       <c r="L74" s="44"/>
@@ -4738,23 +4783,23 @@
       <c r="W76" s="44"/>
     </row>
     <row r="77" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="124">
+      <c r="A77" s="123">
         <v>2</v>
       </c>
-      <c r="B77" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="C77" s="143" t="s">
-        <v>146</v>
+      <c r="B77" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="121" t="s">
+        <v>142</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F77" s="35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>16</v>
@@ -4767,7 +4812,7 @@
       </c>
       <c r="J77" s="47"/>
       <c r="K77" s="66" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L77" s="44"/>
       <c r="M77" s="44"/>
@@ -4783,17 +4828,17 @@
       <c r="W77" s="44"/>
     </row>
     <row r="78" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="124"/>
-      <c r="B78" s="124"/>
-      <c r="C78" s="143"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="121"/>
       <c r="D78" s="31">
         <v>2</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>16</v>
@@ -4803,7 +4848,7 @@
         <v>18</v>
       </c>
       <c r="J78" s="43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K78" s="66"/>
       <c r="L78" s="44"/>
@@ -4820,24 +4865,24 @@
       <c r="W78" s="44"/>
     </row>
     <row r="79" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="124"/>
-      <c r="B79" s="124"/>
-      <c r="C79" s="143"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="121"/>
       <c r="D79" s="33">
         <v>3</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79" s="35"/>
       <c r="I79" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J79" s="47"/>
       <c r="K79" s="45"/>
@@ -4855,17 +4900,17 @@
       <c r="W79" s="44"/>
     </row>
     <row r="80" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="124"/>
-      <c r="B80" s="124"/>
-      <c r="C80" s="143"/>
+      <c r="A80" s="123"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="121"/>
       <c r="D80" s="33">
         <v>4</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" s="35" t="s">
         <v>29</v>
@@ -4890,17 +4935,17 @@
       <c r="W80" s="44"/>
     </row>
     <row r="81" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="124"/>
-      <c r="B81" s="124"/>
-      <c r="C81" s="143"/>
+      <c r="A81" s="123"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="121"/>
       <c r="D81" s="33">
         <v>5</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" s="35" t="s">
         <v>29</v>
@@ -4927,15 +4972,15 @@
     <row r="82" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="125"/>
       <c r="B82" s="125"/>
-      <c r="C82" s="144"/>
+      <c r="C82" s="122"/>
       <c r="D82" s="33">
         <v>6</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G82" s="35" t="s">
         <v>16</v>
@@ -4945,7 +4990,7 @@
         <v>18</v>
       </c>
       <c r="J82" s="47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K82" s="45"/>
       <c r="L82" s="44"/>
@@ -5005,23 +5050,23 @@
       <c r="W84" s="44"/>
     </row>
     <row r="85" spans="1:23" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="124">
+      <c r="A85" s="123">
         <v>3</v>
       </c>
-      <c r="B85" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="C85" s="124" t="s">
-        <v>161</v>
+      <c r="B85" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="123" t="s">
+        <v>157</v>
       </c>
       <c r="D85" s="33">
         <v>1</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F85" s="35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G85" s="35" t="s">
         <v>16</v>
@@ -5033,8 +5078,8 @@
         <v>18</v>
       </c>
       <c r="J85" s="43"/>
-      <c r="K85" s="148" t="s">
-        <v>164</v>
+      <c r="K85" s="113" t="s">
+        <v>160</v>
       </c>
       <c r="L85" s="44"/>
       <c r="M85" s="44"/>
@@ -5050,17 +5095,17 @@
       <c r="W85" s="44"/>
     </row>
     <row r="86" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="124"/>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="31">
         <v>2</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>16</v>
@@ -5070,9 +5115,9 @@
         <v>18</v>
       </c>
       <c r="J86" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="K86" s="149"/>
+        <v>147</v>
+      </c>
+      <c r="K86" s="114"/>
       <c r="L86" s="44"/>
       <c r="M86" s="44"/>
       <c r="N86" s="44"/>
@@ -5087,27 +5132,27 @@
       <c r="W86" s="44"/>
     </row>
     <row r="87" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="124"/>
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="123"/>
       <c r="D87" s="33">
         <v>3</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G87" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H87" s="35"/>
       <c r="I87" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J87" s="43"/>
-      <c r="K87" s="149"/>
+      <c r="K87" s="114"/>
       <c r="L87" s="44"/>
       <c r="M87" s="44"/>
       <c r="N87" s="44"/>
@@ -5122,27 +5167,27 @@
       <c r="W87" s="44"/>
     </row>
     <row r="88" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="124"/>
-      <c r="B88" s="124"/>
-      <c r="C88" s="124"/>
+      <c r="A88" s="123"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="123"/>
       <c r="D88" s="33">
         <v>4</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G88" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H88" s="35"/>
       <c r="I88" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J88" s="43"/>
-      <c r="K88" s="149"/>
+      <c r="K88" s="114"/>
       <c r="L88" s="44"/>
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
@@ -5157,17 +5202,17 @@
       <c r="W88" s="44"/>
     </row>
     <row r="89" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="124"/>
-      <c r="B89" s="124"/>
-      <c r="C89" s="124"/>
+      <c r="A89" s="123"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="31">
         <v>5</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>29</v>
@@ -5242,23 +5287,23 @@
       <c r="W91" s="44"/>
     </row>
     <row r="92" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="123">
+      <c r="A92" s="124">
         <v>4</v>
       </c>
-      <c r="B92" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="C92" s="123" t="s">
-        <v>172</v>
+      <c r="B92" s="124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="124" t="s">
+        <v>168</v>
       </c>
       <c r="D92" s="33">
         <v>1</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G92" s="35" t="s">
         <v>16</v>
@@ -5270,8 +5315,8 @@
         <v>18</v>
       </c>
       <c r="J92" s="47"/>
-      <c r="K92" s="148" t="s">
-        <v>164</v>
+      <c r="K92" s="113" t="s">
+        <v>160</v>
       </c>
       <c r="L92" s="44"/>
       <c r="M92" s="44"/>
@@ -5287,17 +5332,17 @@
       <c r="W92" s="44"/>
     </row>
     <row r="93" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="124"/>
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
+      <c r="A93" s="123"/>
+      <c r="B93" s="123"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="31">
         <v>2</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>16</v>
@@ -5307,9 +5352,9 @@
         <v>18</v>
       </c>
       <c r="J93" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="K93" s="149"/>
+        <v>147</v>
+      </c>
+      <c r="K93" s="114"/>
       <c r="L93" s="44"/>
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
@@ -5324,27 +5369,27 @@
       <c r="W93" s="44"/>
     </row>
     <row r="94" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="124"/>
-      <c r="B94" s="124"/>
-      <c r="C94" s="124"/>
+      <c r="A94" s="123"/>
+      <c r="B94" s="123"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="33">
         <v>3</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F94" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H94" s="35"/>
       <c r="I94" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="47"/>
-      <c r="K94" s="149"/>
+      <c r="K94" s="114"/>
       <c r="L94" s="44"/>
       <c r="M94" s="44"/>
       <c r="N94" s="44"/>
@@ -5359,27 +5404,27 @@
       <c r="W94" s="44"/>
     </row>
     <row r="95" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="124"/>
-      <c r="B95" s="124"/>
-      <c r="C95" s="124"/>
+      <c r="A95" s="123"/>
+      <c r="B95" s="123"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="33">
         <v>4</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F95" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G95" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H95" s="35"/>
       <c r="I95" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="47"/>
-      <c r="K95" s="149"/>
+      <c r="K95" s="114"/>
       <c r="L95" s="44"/>
       <c r="M95" s="44"/>
       <c r="N95" s="44"/>
@@ -5401,10 +5446,10 @@
         <v>5</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>29</v>
@@ -5479,23 +5524,23 @@
       <c r="W98" s="44"/>
     </row>
     <row r="99" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="123">
+      <c r="A99" s="124">
         <v>5</v>
       </c>
-      <c r="B99" s="123" t="s">
-        <v>175</v>
-      </c>
-      <c r="C99" s="123" t="s">
-        <v>176</v>
+      <c r="B99" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" s="124" t="s">
+        <v>172</v>
       </c>
       <c r="D99" s="33">
         <v>1</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G99" s="35" t="s">
         <v>16</v>
@@ -5508,7 +5553,7 @@
       </c>
       <c r="J99" s="47"/>
       <c r="K99" s="45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L99" s="44"/>
       <c r="M99" s="44"/>
@@ -5524,17 +5569,17 @@
       <c r="W99" s="44"/>
     </row>
     <row r="100" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="124"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
+      <c r="A100" s="123"/>
+      <c r="B100" s="123"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="31">
         <v>2</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>16</v>
@@ -5544,10 +5589,10 @@
         <v>18</v>
       </c>
       <c r="J100" s="43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L100" s="44"/>
       <c r="M100" s="44"/>
@@ -5563,24 +5608,24 @@
       <c r="W100" s="44"/>
     </row>
     <row r="101" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="124"/>
-      <c r="B101" s="124"/>
-      <c r="C101" s="124"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="123"/>
       <c r="D101" s="33">
         <v>3</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F101" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101" s="35"/>
       <c r="I101" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="41"/>
@@ -5598,20 +5643,20 @@
       <c r="W101" s="44"/>
     </row>
     <row r="102" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="124"/>
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
+      <c r="A102" s="123"/>
+      <c r="B102" s="123"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="33">
         <v>4</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F102" s="35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H102" s="35"/>
       <c r="I102" s="35" t="s">
@@ -5633,20 +5678,20 @@
       <c r="W102" s="44"/>
     </row>
     <row r="103" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="124"/>
-      <c r="B103" s="124"/>
-      <c r="C103" s="124"/>
+      <c r="A103" s="123"/>
+      <c r="B103" s="123"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="33">
         <v>5</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F103" s="35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G103" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H103" s="35"/>
       <c r="I103" s="35" t="s">
@@ -5668,20 +5713,20 @@
       <c r="W103" s="44"/>
     </row>
     <row r="104" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="124"/>
-      <c r="B104" s="124"/>
-      <c r="C104" s="124"/>
+      <c r="A104" s="123"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="33">
         <v>6</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G104" s="35" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H104" s="35"/>
       <c r="I104" s="35" t="s">
@@ -5710,13 +5755,13 @@
         <v>7</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F105" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G105" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105" s="35"/>
       <c r="I105" s="35" t="s">
@@ -5788,17 +5833,17 @@
       <c r="W107" s="44"/>
     </row>
     <row r="108" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="110" t="s">
+      <c r="A108" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="111"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
-      <c r="F108" s="111"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="112"/>
+      <c r="B108" s="142"/>
+      <c r="C108" s="142"/>
+      <c r="D108" s="142"/>
+      <c r="E108" s="142"/>
+      <c r="F108" s="142"/>
+      <c r="G108" s="142"/>
+      <c r="H108" s="142"/>
+      <c r="I108" s="143"/>
       <c r="J108" s="47"/>
       <c r="K108" s="45"/>
       <c r="L108" s="44"/>
@@ -5815,32 +5860,32 @@
       <c r="W108" s="44"/>
     </row>
     <row r="109" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="129">
+      <c r="A109" s="119">
         <v>1</v>
       </c>
-      <c r="B109" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="129" t="s">
-        <v>187</v>
+      <c r="B109" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="119" t="s">
+        <v>183</v>
       </c>
       <c r="D109" s="56">
         <v>1</v>
       </c>
       <c r="E109" s="57" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F109" s="57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G109" s="57" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I109" s="57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J109" s="43"/>
       <c r="K109" s="45"/>
@@ -5858,20 +5903,20 @@
       <c r="W109" s="44"/>
     </row>
     <row r="110" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="129"/>
-      <c r="B110" s="129"/>
-      <c r="C110" s="129"/>
+      <c r="A110" s="119"/>
+      <c r="B110" s="119"/>
+      <c r="C110" s="119"/>
       <c r="D110" s="58">
         <v>2</v>
       </c>
       <c r="E110" s="59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F110" s="59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G110" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H110" s="59"/>
       <c r="I110" s="59"/>
@@ -5891,28 +5936,28 @@
       <c r="W110" s="44"/>
     </row>
     <row r="111" spans="1:23" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A111" s="129"/>
-      <c r="B111" s="129"/>
-      <c r="C111" s="129"/>
+      <c r="A111" s="119"/>
+      <c r="B111" s="119"/>
+      <c r="C111" s="119"/>
       <c r="D111" s="31">
         <v>3</v>
       </c>
       <c r="E111" s="60" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F111" s="60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G111" s="60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H111" s="60"/>
       <c r="I111" s="60"/>
       <c r="J111" s="68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K111" s="66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L111" s="44"/>
       <c r="M111" s="44"/>
@@ -5928,20 +5973,20 @@
       <c r="W111" s="44"/>
     </row>
     <row r="112" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="129"/>
-      <c r="B112" s="129"/>
-      <c r="C112" s="129"/>
+      <c r="A112" s="119"/>
+      <c r="B112" s="119"/>
+      <c r="C112" s="119"/>
       <c r="D112" s="58">
         <v>4</v>
       </c>
       <c r="E112" s="59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F112" s="59" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G112" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
@@ -5961,20 +6006,20 @@
       <c r="W112" s="27"/>
     </row>
     <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="129"/>
-      <c r="B113" s="129"/>
-      <c r="C113" s="129"/>
+      <c r="A113" s="119"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="119"/>
       <c r="D113" s="58">
         <v>5</v>
       </c>
       <c r="E113" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F113" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G113" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H113" s="59"/>
       <c r="I113" s="59"/>
@@ -5994,20 +6039,20 @@
       <c r="W113" s="27"/>
     </row>
     <row r="114" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="129"/>
-      <c r="B114" s="129"/>
-      <c r="C114" s="129"/>
+      <c r="A114" s="119"/>
+      <c r="B114" s="119"/>
+      <c r="C114" s="119"/>
       <c r="D114" s="58">
         <v>6</v>
       </c>
       <c r="E114" s="59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F114" s="59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G114" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H114" s="59"/>
       <c r="I114" s="59"/>
@@ -6027,20 +6072,20 @@
       <c r="W114" s="27"/>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A115" s="129"/>
-      <c r="B115" s="129"/>
-      <c r="C115" s="129"/>
+      <c r="A115" s="119"/>
+      <c r="B115" s="119"/>
+      <c r="C115" s="119"/>
       <c r="D115" s="58">
         <v>7</v>
       </c>
       <c r="E115" s="59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F115" s="59" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G115" s="59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H115" s="59"/>
       <c r="I115" s="59"/>
@@ -6060,28 +6105,28 @@
       <c r="W115" s="71"/>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A116" s="129"/>
-      <c r="B116" s="129"/>
-      <c r="C116" s="129"/>
+      <c r="A116" s="119"/>
+      <c r="B116" s="119"/>
+      <c r="C116" s="119"/>
       <c r="D116" s="58">
         <v>8</v>
       </c>
       <c r="E116" s="59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F116" s="59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G116" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H116" s="59"/>
       <c r="I116" s="59"/>
       <c r="J116" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="K116" s="145" t="s">
-        <v>209</v>
+        <v>79</v>
+      </c>
+      <c r="K116" s="110" t="s">
+        <v>205</v>
       </c>
       <c r="L116" s="71"/>
       <c r="M116" s="71"/>
@@ -6097,27 +6142,27 @@
       <c r="W116" s="71"/>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A117" s="130"/>
-      <c r="B117" s="130"/>
-      <c r="C117" s="130"/>
+      <c r="A117" s="120"/>
+      <c r="B117" s="120"/>
+      <c r="C117" s="120"/>
       <c r="D117" s="58">
         <v>9</v>
       </c>
       <c r="E117" s="59" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F117" s="59" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G117" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H117" s="59"/>
       <c r="I117" s="59"/>
       <c r="J117" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="K117" s="147"/>
+        <v>79</v>
+      </c>
+      <c r="K117" s="112"/>
       <c r="L117" s="71"/>
       <c r="M117" s="71"/>
       <c r="N117" s="71"/>
@@ -6139,7 +6184,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="60" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F118" s="60" t="s">
         <v>32</v>
@@ -6151,7 +6196,7 @@
       <c r="I118" s="60"/>
       <c r="J118" s="69"/>
       <c r="K118" s="45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L118" s="71"/>
       <c r="M118" s="71"/>
@@ -6217,32 +6262,32 @@
       <c r="W120" s="71"/>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A121" s="131">
+      <c r="A121" s="118">
         <v>2</v>
       </c>
-      <c r="B121" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="C121" s="131" t="s">
-        <v>215</v>
+      <c r="B121" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="118" t="s">
+        <v>211</v>
       </c>
       <c r="D121" s="58">
         <v>1</v>
       </c>
       <c r="E121" s="59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F121" s="59" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G121" s="59" t="s">
         <v>16</v>
       </c>
       <c r="H121" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I121" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J121" s="43"/>
       <c r="K121" s="45"/>
@@ -6260,27 +6305,27 @@
       <c r="W121" s="71"/>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A122" s="129"/>
-      <c r="B122" s="129"/>
-      <c r="C122" s="129"/>
+      <c r="A122" s="119"/>
+      <c r="B122" s="119"/>
+      <c r="C122" s="119"/>
       <c r="D122" s="31">
         <v>3</v>
       </c>
       <c r="E122" s="60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F122" s="60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G122" s="60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H122" s="60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I122" s="60"/>
       <c r="J122" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K122" s="45"/>
       <c r="L122" s="71"/>
@@ -6297,17 +6342,17 @@
       <c r="W122" s="71"/>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A123" s="129"/>
-      <c r="B123" s="129"/>
-      <c r="C123" s="129"/>
+      <c r="A123" s="119"/>
+      <c r="B123" s="119"/>
+      <c r="C123" s="119"/>
       <c r="D123" s="58">
         <v>3</v>
       </c>
       <c r="E123" s="59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F123" s="59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G123" s="59" t="s">
         <v>29</v>
@@ -6330,20 +6375,20 @@
       <c r="W123" s="71"/>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A124" s="129"/>
-      <c r="B124" s="129"/>
-      <c r="C124" s="129"/>
+      <c r="A124" s="119"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="119"/>
       <c r="D124" s="58">
         <v>4</v>
       </c>
       <c r="E124" s="59" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F124" s="59" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G124" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H124" s="59"/>
       <c r="I124" s="59"/>
@@ -6362,20 +6407,20 @@
       <c r="W124" s="71"/>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A125" s="129"/>
-      <c r="B125" s="129"/>
-      <c r="C125" s="129"/>
+      <c r="A125" s="119"/>
+      <c r="B125" s="119"/>
+      <c r="C125" s="119"/>
       <c r="D125" s="58">
         <v>5</v>
       </c>
       <c r="E125" s="59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F125" s="59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G125" s="59" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H125" s="59"/>
       <c r="I125" s="59"/>
@@ -6394,20 +6439,20 @@
       <c r="W125" s="71"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A126" s="130"/>
-      <c r="B126" s="130"/>
-      <c r="C126" s="130"/>
+      <c r="A126" s="120"/>
+      <c r="B126" s="120"/>
+      <c r="C126" s="120"/>
       <c r="D126" s="58">
         <v>6</v>
       </c>
       <c r="E126" s="59" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F126" s="59" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G126" s="59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H126" s="59"/>
       <c r="I126" s="59"/>
@@ -6474,32 +6519,32 @@
       <c r="W128" s="71"/>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A129" s="131">
+      <c r="A129" s="118">
         <v>3</v>
       </c>
-      <c r="B129" s="131" t="s">
-        <v>229</v>
-      </c>
-      <c r="C129" s="131" t="s">
-        <v>230</v>
+      <c r="B129" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C129" s="118" t="s">
+        <v>226</v>
       </c>
       <c r="D129" s="58">
         <v>1</v>
       </c>
       <c r="E129" s="59" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F129" s="59" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G129" s="59" t="s">
         <v>16</v>
       </c>
       <c r="H129" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I129" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K129" s="45"/>
       <c r="L129" s="71"/>
@@ -6516,27 +6561,27 @@
       <c r="W129" s="71"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A130" s="129"/>
-      <c r="B130" s="129"/>
-      <c r="C130" s="129"/>
+      <c r="A130" s="119"/>
+      <c r="B130" s="119"/>
+      <c r="C130" s="119"/>
       <c r="D130" s="31">
         <v>3</v>
       </c>
       <c r="E130" s="60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F130" s="60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G130" s="60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H130" s="60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I130" s="60"/>
       <c r="J130" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K130" s="45"/>
       <c r="L130" s="71"/>
@@ -6553,23 +6598,23 @@
       <c r="W130" s="71"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A131" s="129"/>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
+      <c r="A131" s="119"/>
+      <c r="B131" s="119"/>
+      <c r="C131" s="119"/>
       <c r="D131" s="58">
         <v>3</v>
       </c>
       <c r="E131" s="59" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F131" s="59" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G131" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H131" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I131" s="59"/>
       <c r="K131" s="45"/>
@@ -6587,23 +6632,23 @@
       <c r="W131" s="71"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A132" s="130"/>
-      <c r="B132" s="130"/>
-      <c r="C132" s="130"/>
+      <c r="A132" s="120"/>
+      <c r="B132" s="120"/>
+      <c r="C132" s="120"/>
       <c r="D132" s="58">
         <v>4</v>
       </c>
       <c r="E132" s="59" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F132" s="59" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G132" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H132" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I132" s="59"/>
       <c r="K132" s="45"/>
@@ -6669,32 +6714,32 @@
       <c r="W134" s="71"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A135" s="131">
+      <c r="A135" s="118">
         <v>4</v>
       </c>
-      <c r="B135" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="131" t="s">
-        <v>238</v>
+      <c r="B135" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" s="118" t="s">
+        <v>234</v>
       </c>
       <c r="D135" s="58">
         <v>1</v>
       </c>
       <c r="E135" s="59" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F135" s="59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G135" s="59" t="s">
         <v>16</v>
       </c>
       <c r="H135" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I135" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K135" s="45"/>
       <c r="L135" s="71"/>
@@ -6711,27 +6756,27 @@
       <c r="W135" s="71"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A136" s="129"/>
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
+      <c r="A136" s="119"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="119"/>
       <c r="D136" s="31">
         <v>3</v>
       </c>
       <c r="E136" s="60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F136" s="60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G136" s="60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H136" s="60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I136" s="60"/>
       <c r="J136" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K136" s="45"/>
       <c r="L136" s="71"/>
@@ -6748,23 +6793,23 @@
       <c r="W136" s="71"/>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A137" s="129"/>
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
+      <c r="A137" s="119"/>
+      <c r="B137" s="119"/>
+      <c r="C137" s="119"/>
       <c r="D137" s="58">
         <v>3</v>
       </c>
       <c r="E137" s="59" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F137" s="59" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G137" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H137" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I137" s="59"/>
       <c r="K137" s="45"/>
@@ -6782,23 +6827,23 @@
       <c r="W137" s="71"/>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A138" s="129"/>
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
+      <c r="A138" s="119"/>
+      <c r="B138" s="119"/>
+      <c r="C138" s="119"/>
       <c r="D138" s="58">
         <v>4</v>
       </c>
       <c r="E138" s="59" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F138" s="59" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G138" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H138" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I138" s="59"/>
       <c r="K138" s="45"/>
@@ -6816,30 +6861,30 @@
       <c r="W138" s="71"/>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A139" s="129"/>
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
+      <c r="A139" s="119"/>
+      <c r="B139" s="119"/>
+      <c r="C139" s="119"/>
       <c r="D139" s="58">
         <v>5</v>
       </c>
       <c r="E139" s="59" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F139" s="59" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G139" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H139" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I139" s="59"/>
       <c r="J139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K139" s="45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L139" s="71"/>
       <c r="M139" s="71"/>
@@ -6855,30 +6900,30 @@
       <c r="W139" s="71"/>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A140" s="129"/>
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
+      <c r="A140" s="119"/>
+      <c r="B140" s="119"/>
+      <c r="C140" s="119"/>
       <c r="D140" s="58">
         <v>6</v>
       </c>
       <c r="E140" s="59" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F140" s="59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G140" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H140" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I140" s="59"/>
       <c r="J140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K140" s="45" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L140" s="71"/>
       <c r="M140" s="71"/>
@@ -6894,25 +6939,25 @@
       <c r="W140" s="71"/>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A141" s="130"/>
-      <c r="B141" s="130"/>
-      <c r="C141" s="130"/>
+      <c r="A141" s="120"/>
+      <c r="B141" s="120"/>
+      <c r="C141" s="120"/>
       <c r="D141" s="73">
         <v>7</v>
       </c>
       <c r="E141" s="74" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F141" s="74" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G141" s="74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H141" s="74"/>
       <c r="I141" s="74"/>
       <c r="K141" s="45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L141" s="71"/>
       <c r="M141" s="71"/>
@@ -6976,32 +7021,32 @@
       <c r="W143" s="71"/>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A144" s="131">
+      <c r="A144" s="118">
         <v>5</v>
       </c>
-      <c r="B144" s="131" t="s">
-        <v>253</v>
-      </c>
-      <c r="C144" s="131" t="s">
-        <v>254</v>
+      <c r="B144" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C144" s="118" t="s">
+        <v>250</v>
       </c>
       <c r="D144" s="58">
         <v>1</v>
       </c>
       <c r="E144" s="59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F144" s="59" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G144" s="59" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I144" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K144" s="45"/>
       <c r="L144" s="71"/>
@@ -7018,27 +7063,27 @@
       <c r="W144" s="71"/>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A145" s="129"/>
-      <c r="B145" s="129"/>
-      <c r="C145" s="129"/>
+      <c r="A145" s="119"/>
+      <c r="B145" s="119"/>
+      <c r="C145" s="119"/>
       <c r="D145" s="58">
         <v>2</v>
       </c>
       <c r="E145" s="59" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F145" s="59" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G145" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H145" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I145" s="59"/>
       <c r="K145" s="45" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L145" s="71"/>
       <c r="M145" s="71"/>
@@ -7054,23 +7099,23 @@
       <c r="W145" s="71"/>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A146" s="129"/>
-      <c r="B146" s="129"/>
-      <c r="C146" s="129"/>
+      <c r="A146" s="119"/>
+      <c r="B146" s="119"/>
+      <c r="C146" s="119"/>
       <c r="D146" s="58">
         <v>3</v>
       </c>
       <c r="E146" s="59" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F146" s="59" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G146" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H146" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I146" s="59"/>
       <c r="K146" s="45"/>
@@ -7088,23 +7133,23 @@
       <c r="W146" s="71"/>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A147" s="129"/>
-      <c r="B147" s="129"/>
-      <c r="C147" s="129"/>
+      <c r="A147" s="119"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="119"/>
       <c r="D147" s="58">
         <v>4</v>
       </c>
       <c r="E147" s="59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F147" s="59" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G147" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H147" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I147" s="59"/>
       <c r="K147" s="45"/>
@@ -7122,23 +7167,23 @@
       <c r="W147" s="71"/>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A148" s="129"/>
-      <c r="B148" s="129"/>
-      <c r="C148" s="129"/>
+      <c r="A148" s="119"/>
+      <c r="B148" s="119"/>
+      <c r="C148" s="119"/>
       <c r="D148" s="58">
         <v>5</v>
       </c>
       <c r="E148" s="59" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F148" s="59" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G148" s="59" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H148" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I148" s="59"/>
       <c r="K148" s="45"/>
@@ -7156,23 +7201,23 @@
       <c r="W148" s="71"/>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A149" s="129"/>
-      <c r="B149" s="129"/>
-      <c r="C149" s="129"/>
+      <c r="A149" s="119"/>
+      <c r="B149" s="119"/>
+      <c r="C149" s="119"/>
       <c r="D149" s="58">
         <v>6</v>
       </c>
       <c r="E149" s="59" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F149" s="59" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G149" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H149" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I149" s="59"/>
       <c r="K149" s="45"/>
@@ -7190,23 +7235,23 @@
       <c r="W149" s="71"/>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A150" s="129"/>
-      <c r="B150" s="129"/>
-      <c r="C150" s="129"/>
+      <c r="A150" s="119"/>
+      <c r="B150" s="119"/>
+      <c r="C150" s="119"/>
       <c r="D150" s="58">
         <v>7</v>
       </c>
       <c r="E150" s="59" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F150" s="59" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G150" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H150" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I150" s="59"/>
       <c r="K150" s="45"/>
@@ -7224,23 +7269,23 @@
       <c r="W150" s="71"/>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A151" s="129"/>
-      <c r="B151" s="129"/>
-      <c r="C151" s="129"/>
+      <c r="A151" s="119"/>
+      <c r="B151" s="119"/>
+      <c r="C151" s="119"/>
       <c r="D151" s="58">
         <v>8</v>
       </c>
       <c r="E151" s="59" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F151" s="59" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G151" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H151" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I151" s="59"/>
       <c r="K151" s="45"/>
@@ -7258,23 +7303,23 @@
       <c r="W151" s="71"/>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A152" s="129"/>
-      <c r="B152" s="129"/>
-      <c r="C152" s="129"/>
+      <c r="A152" s="119"/>
+      <c r="B152" s="119"/>
+      <c r="C152" s="119"/>
       <c r="D152" s="58">
         <v>9</v>
       </c>
       <c r="E152" s="59" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F152" s="59" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G152" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H152" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I152" s="59"/>
       <c r="K152" s="45"/>
@@ -7340,32 +7385,32 @@
       <c r="W154" s="71"/>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A155" s="129">
+      <c r="A155" s="119">
         <v>6</v>
       </c>
-      <c r="B155" s="129" t="s">
-        <v>273</v>
-      </c>
-      <c r="C155" s="129" t="s">
-        <v>274</v>
+      <c r="B155" s="119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C155" s="119" t="s">
+        <v>270</v>
       </c>
       <c r="D155" s="56">
         <v>1</v>
       </c>
       <c r="E155" s="57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F155" s="57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G155" s="57" t="s">
         <v>16</v>
       </c>
       <c r="H155" s="57" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I155" s="57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K155" s="45"/>
       <c r="L155" s="71"/>
@@ -7382,23 +7427,23 @@
       <c r="W155" s="71"/>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A156" s="129"/>
-      <c r="B156" s="129"/>
-      <c r="C156" s="129"/>
+      <c r="A156" s="119"/>
+      <c r="B156" s="119"/>
+      <c r="C156" s="119"/>
       <c r="D156" s="58">
         <v>2</v>
       </c>
       <c r="E156" s="59" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F156" s="59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G156" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H156" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I156" s="59"/>
       <c r="K156" s="45"/>
@@ -7416,27 +7461,27 @@
       <c r="W156" s="71"/>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A157" s="129"/>
-      <c r="B157" s="129"/>
-      <c r="C157" s="129"/>
+      <c r="A157" s="119"/>
+      <c r="B157" s="119"/>
+      <c r="C157" s="119"/>
       <c r="D157" s="31">
         <v>3</v>
       </c>
       <c r="E157" s="60" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F157" s="60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G157" s="60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H157" s="60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I157" s="60"/>
       <c r="J157" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K157" s="45"/>
       <c r="L157" s="71"/>
@@ -7453,23 +7498,23 @@
       <c r="W157" s="71"/>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A158" s="129"/>
-      <c r="B158" s="129"/>
-      <c r="C158" s="129"/>
+      <c r="A158" s="119"/>
+      <c r="B158" s="119"/>
+      <c r="C158" s="119"/>
       <c r="D158" s="58">
         <v>4</v>
       </c>
       <c r="E158" s="59" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F158" s="59" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G158" s="59" t="s">
         <v>29</v>
       </c>
       <c r="H158" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I158" s="59"/>
       <c r="K158" s="45"/>
@@ -7487,23 +7532,23 @@
       <c r="W158" s="71"/>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A159" s="129"/>
-      <c r="B159" s="129"/>
-      <c r="C159" s="129"/>
+      <c r="A159" s="119"/>
+      <c r="B159" s="119"/>
+      <c r="C159" s="119"/>
       <c r="D159" s="58">
         <v>5</v>
       </c>
       <c r="E159" s="59" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F159" s="59" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G159" s="59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H159" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I159" s="59"/>
       <c r="K159" s="45"/>
@@ -7521,23 +7566,23 @@
       <c r="W159" s="71"/>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A160" s="130"/>
-      <c r="B160" s="130"/>
-      <c r="C160" s="130"/>
+      <c r="A160" s="120"/>
+      <c r="B160" s="120"/>
+      <c r="C160" s="120"/>
       <c r="D160" s="58">
         <v>6</v>
       </c>
       <c r="E160" s="59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F160" s="59" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G160" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H160" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I160" s="59"/>
       <c r="K160" s="45"/>
@@ -7603,17 +7648,17 @@
       <c r="W162" s="71"/>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A163" s="113" t="s">
+      <c r="A163" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="B163" s="114"/>
-      <c r="C163" s="114"/>
-      <c r="D163" s="114"/>
-      <c r="E163" s="114"/>
-      <c r="F163" s="114"/>
-      <c r="G163" s="114"/>
-      <c r="H163" s="114"/>
-      <c r="I163" s="115"/>
+      <c r="B163" s="145"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="145"/>
+      <c r="E163" s="145"/>
+      <c r="F163" s="145"/>
+      <c r="G163" s="145"/>
+      <c r="H163" s="145"/>
+      <c r="I163" s="146"/>
       <c r="K163" s="45"/>
       <c r="L163" s="71"/>
       <c r="M163" s="71"/>
@@ -7629,29 +7674,29 @@
       <c r="W163" s="71"/>
     </row>
     <row r="164" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="120">
+      <c r="A164" s="135">
         <v>1</v>
       </c>
-      <c r="B164" s="133" t="s">
-        <v>285</v>
-      </c>
-      <c r="C164" s="133" t="s">
-        <v>286</v>
+      <c r="B164" s="115" t="s">
+        <v>281</v>
+      </c>
+      <c r="C164" s="115" t="s">
+        <v>282</v>
       </c>
       <c r="D164" s="79">
         <v>1</v>
       </c>
       <c r="E164" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F164" s="80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G164" s="80" t="s">
         <v>16</v>
       </c>
       <c r="H164" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I164" s="80" t="s">
         <v>18</v>
@@ -7672,20 +7717,20 @@
       <c r="W164" s="84"/>
     </row>
     <row r="165" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="121"/>
-      <c r="B165" s="134"/>
-      <c r="C165" s="134"/>
+      <c r="A165" s="136"/>
+      <c r="B165" s="116"/>
+      <c r="C165" s="116"/>
       <c r="D165" s="79">
         <v>2</v>
       </c>
       <c r="E165" s="80" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F165" s="80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G165" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H165" s="80"/>
       <c r="I165" s="80" t="s">
@@ -7693,7 +7738,7 @@
       </c>
       <c r="J165" s="88"/>
       <c r="K165" s="89" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L165" s="90"/>
       <c r="M165" s="90"/>
@@ -7709,20 +7754,20 @@
       <c r="W165" s="84"/>
     </row>
     <row r="166" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="121"/>
-      <c r="B166" s="134"/>
-      <c r="C166" s="134"/>
+      <c r="A166" s="136"/>
+      <c r="B166" s="116"/>
+      <c r="C166" s="116"/>
       <c r="D166" s="79">
         <v>3</v>
       </c>
       <c r="E166" s="80" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F166" s="81" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G166" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H166" s="80"/>
       <c r="I166" s="80" t="s">
@@ -7730,7 +7775,7 @@
       </c>
       <c r="J166" s="91"/>
       <c r="K166" s="89" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L166" s="90"/>
       <c r="M166" s="90"/>
@@ -7746,20 +7791,20 @@
       <c r="W166" s="84"/>
     </row>
     <row r="167" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="121"/>
-      <c r="B167" s="134"/>
-      <c r="C167" s="134"/>
+      <c r="A167" s="136"/>
+      <c r="B167" s="116"/>
+      <c r="C167" s="116"/>
       <c r="D167" s="79">
         <v>4</v>
       </c>
       <c r="E167" s="80" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F167" s="80" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G167" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H167" s="80"/>
       <c r="I167" s="80" t="s">
@@ -7767,7 +7812,7 @@
       </c>
       <c r="J167" s="88"/>
       <c r="K167" s="89" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L167" s="90"/>
       <c r="M167" s="90"/>
@@ -7783,20 +7828,20 @@
       <c r="W167" s="84"/>
     </row>
     <row r="168" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="121"/>
-      <c r="B168" s="134"/>
-      <c r="C168" s="134"/>
+      <c r="A168" s="136"/>
+      <c r="B168" s="116"/>
+      <c r="C168" s="116"/>
       <c r="D168" s="79">
         <v>5</v>
       </c>
       <c r="E168" s="80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F168" s="80" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G168" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168" s="80"/>
       <c r="I168" s="80" t="s">
@@ -7818,14 +7863,14 @@
       <c r="W168" s="84"/>
     </row>
     <row r="169" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="121"/>
-      <c r="B169" s="134"/>
-      <c r="C169" s="134"/>
+      <c r="A169" s="136"/>
+      <c r="B169" s="116"/>
+      <c r="C169" s="116"/>
       <c r="D169" s="79">
         <v>6</v>
       </c>
       <c r="E169" s="80" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F169" s="80" t="s">
         <v>28</v>
@@ -7853,30 +7898,30 @@
       <c r="W169" s="84"/>
     </row>
     <row r="170" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="121"/>
-      <c r="B170" s="134"/>
-      <c r="C170" s="134"/>
+      <c r="A170" s="136"/>
+      <c r="B170" s="116"/>
+      <c r="C170" s="116"/>
       <c r="D170" s="79">
         <v>7</v>
       </c>
       <c r="E170" s="80" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F170" s="80" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G170" s="80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H170" s="80"/>
       <c r="I170" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J170" s="88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K170" s="89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L170" s="90"/>
       <c r="M170" s="90"/>
@@ -7899,13 +7944,13 @@
         <v>8</v>
       </c>
       <c r="E171" s="82" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F171" s="80" t="s">
         <v>9</v>
       </c>
       <c r="G171" s="80" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H171" s="80"/>
       <c r="I171" s="80"/>
@@ -7975,23 +8020,23 @@
       <c r="W173" s="84"/>
     </row>
     <row r="174" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="121">
+      <c r="A174" s="136">
         <v>2</v>
       </c>
-      <c r="B174" s="134" t="s">
-        <v>303</v>
-      </c>
-      <c r="C174" s="134" t="s">
-        <v>304</v>
+      <c r="B174" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="C174" s="116" t="s">
+        <v>300</v>
       </c>
       <c r="D174" s="80">
         <v>1</v>
       </c>
       <c r="E174" s="80" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F174" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G174" s="82" t="s">
         <v>16</v>
@@ -8018,20 +8063,20 @@
       <c r="W174" s="84"/>
     </row>
     <row r="175" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="121"/>
-      <c r="B175" s="134"/>
-      <c r="C175" s="134"/>
+      <c r="A175" s="136"/>
+      <c r="B175" s="116"/>
+      <c r="C175" s="116"/>
       <c r="D175" s="80">
         <v>2</v>
       </c>
       <c r="E175" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F175" s="80" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G175" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H175" s="80"/>
       <c r="I175" s="80" t="s">
@@ -8053,17 +8098,17 @@
       <c r="W175" s="84"/>
     </row>
     <row r="176" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="122"/>
-      <c r="B176" s="136"/>
-      <c r="C176" s="136"/>
+      <c r="A176" s="137"/>
+      <c r="B176" s="117"/>
+      <c r="C176" s="117"/>
       <c r="D176" s="80">
         <v>3</v>
       </c>
       <c r="E176" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F176" s="80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176" s="80" t="s">
         <v>29</v>
@@ -8138,23 +8183,23 @@
       <c r="W178" s="84"/>
     </row>
     <row r="179" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="121">
+      <c r="A179" s="136">
         <v>3</v>
       </c>
-      <c r="B179" s="134" t="s">
-        <v>309</v>
-      </c>
-      <c r="C179" s="134" t="s">
-        <v>310</v>
+      <c r="B179" s="116" t="s">
+        <v>305</v>
+      </c>
+      <c r="C179" s="116" t="s">
+        <v>306</v>
       </c>
       <c r="D179" s="80">
         <v>1</v>
       </c>
       <c r="E179" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F179" s="80" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G179" s="80" t="s">
         <v>16</v>
@@ -8181,20 +8226,20 @@
       <c r="W179" s="84"/>
     </row>
     <row r="180" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="121"/>
-      <c r="B180" s="134"/>
-      <c r="C180" s="134"/>
+      <c r="A180" s="136"/>
+      <c r="B180" s="116"/>
+      <c r="C180" s="116"/>
       <c r="D180" s="80">
         <v>2</v>
       </c>
       <c r="E180" s="80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F180" s="80" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G180" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H180" s="80"/>
       <c r="I180" s="80" t="s">
@@ -8216,17 +8261,17 @@
       <c r="W180" s="84"/>
     </row>
     <row r="181" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="121"/>
-      <c r="B181" s="134"/>
-      <c r="C181" s="134"/>
+      <c r="A181" s="136"/>
+      <c r="B181" s="116"/>
+      <c r="C181" s="116"/>
       <c r="D181" s="80">
         <v>3</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F181" s="80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181" s="80" t="s">
         <v>29</v>
@@ -8251,17 +8296,17 @@
       <c r="W181" s="84"/>
     </row>
     <row r="182" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="122"/>
-      <c r="B182" s="136"/>
-      <c r="C182" s="136"/>
+      <c r="A182" s="137"/>
+      <c r="B182" s="117"/>
+      <c r="C182" s="117"/>
       <c r="D182" s="80">
         <v>4</v>
       </c>
       <c r="E182" s="80" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F182" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G182" s="80" t="s">
         <v>16</v>
@@ -8271,7 +8316,7 @@
         <v>18</v>
       </c>
       <c r="J182" s="88" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K182" s="89"/>
       <c r="L182" s="90"/>
@@ -8293,18 +8338,18 @@
       <c r="C183" s="87"/>
       <c r="D183" s="80"/>
       <c r="E183" s="80" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F183" s="80" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G183" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H183" s="80"/>
       <c r="I183" s="80"/>
       <c r="J183" s="88" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K183" s="89"/>
       <c r="L183" s="90"/>
@@ -8369,23 +8414,23 @@
       <c r="W185" s="84"/>
     </row>
     <row r="186" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="B186" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="C186" s="133" t="s">
-        <v>320</v>
+      <c r="A186" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" s="115" t="s">
+        <v>315</v>
+      </c>
+      <c r="C186" s="115" t="s">
+        <v>316</v>
       </c>
       <c r="D186" s="79">
         <v>1</v>
       </c>
       <c r="E186" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="F186" s="80" t="s">
         <v>51</v>
-      </c>
-      <c r="F186" s="80" t="s">
-        <v>52</v>
       </c>
       <c r="G186" s="80" t="s">
         <v>16</v>
@@ -8398,7 +8443,7 @@
       </c>
       <c r="J186" s="88"/>
       <c r="K186" s="89" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L186" s="90"/>
       <c r="M186" s="90"/>
@@ -8414,17 +8459,17 @@
       <c r="W186" s="84"/>
     </row>
     <row r="187" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="132"/>
-      <c r="B187" s="134"/>
-      <c r="C187" s="134"/>
+      <c r="A187" s="133"/>
+      <c r="B187" s="116"/>
+      <c r="C187" s="116"/>
       <c r="D187" s="79">
         <v>2</v>
       </c>
       <c r="E187" s="79" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F187" s="80" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G187" s="80" t="s">
         <v>16</v>
@@ -8451,17 +8496,17 @@
       <c r="W187" s="84"/>
     </row>
     <row r="188" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="132"/>
-      <c r="B188" s="134"/>
-      <c r="C188" s="134"/>
+      <c r="A188" s="133"/>
+      <c r="B188" s="116"/>
+      <c r="C188" s="116"/>
       <c r="D188" s="79">
         <v>3</v>
       </c>
       <c r="E188" s="79" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F188" s="80" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G188" s="80" t="s">
         <v>16</v>
@@ -8488,17 +8533,17 @@
       <c r="W188" s="84"/>
     </row>
     <row r="189" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="132"/>
-      <c r="B189" s="134"/>
-      <c r="C189" s="134"/>
+      <c r="A189" s="133"/>
+      <c r="B189" s="116"/>
+      <c r="C189" s="116"/>
       <c r="D189" s="79">
         <v>4</v>
       </c>
       <c r="E189" s="79" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F189" s="80" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G189" s="80" t="s">
         <v>16</v>
@@ -8525,30 +8570,30 @@
       <c r="W189" s="84"/>
     </row>
     <row r="190" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="132"/>
-      <c r="B190" s="136"/>
-      <c r="C190" s="136"/>
+      <c r="A190" s="133"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="117"/>
       <c r="D190" s="31">
         <v>5</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F190" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G190" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H190" s="32"/>
       <c r="I190" s="32" t="s">
         <v>18</v>
       </c>
       <c r="J190" s="88" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K190" s="89" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L190" s="90"/>
       <c r="M190" s="90"/>
@@ -8613,23 +8658,23 @@
       <c r="W192" s="84"/>
     </row>
     <row r="193" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="133">
+      <c r="A193" s="115">
         <v>4</v>
       </c>
-      <c r="B193" s="133" t="s">
-        <v>332</v>
-      </c>
-      <c r="C193" s="133" t="s">
-        <v>333</v>
+      <c r="B193" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="C193" s="115" t="s">
+        <v>329</v>
       </c>
       <c r="D193" s="80">
         <v>1</v>
       </c>
       <c r="E193" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F193" s="80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G193" s="92" t="s">
         <v>16</v>
@@ -8656,20 +8701,20 @@
       <c r="W193" s="84"/>
     </row>
     <row r="194" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="134"/>
-      <c r="B194" s="134"/>
-      <c r="C194" s="134"/>
+      <c r="A194" s="116"/>
+      <c r="B194" s="116"/>
+      <c r="C194" s="116"/>
       <c r="D194" s="80">
         <v>2</v>
       </c>
       <c r="E194" s="80" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F194" s="81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G194" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H194" s="80"/>
       <c r="I194" s="80" t="s">
@@ -8677,7 +8722,7 @@
       </c>
       <c r="J194" s="91"/>
       <c r="K194" s="89" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L194" s="90"/>
       <c r="M194" s="90"/>
@@ -8693,30 +8738,30 @@
       <c r="W194" s="84"/>
     </row>
     <row r="195" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="134"/>
-      <c r="B195" s="134"/>
-      <c r="C195" s="134"/>
+      <c r="A195" s="116"/>
+      <c r="B195" s="116"/>
+      <c r="C195" s="116"/>
       <c r="D195" s="80">
         <v>3</v>
       </c>
       <c r="E195" s="80" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F195" s="81" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G195" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H195" s="80"/>
       <c r="I195" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J195" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K195" s="89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L195" s="90"/>
       <c r="M195" s="90"/>
@@ -8732,30 +8777,30 @@
       <c r="W195" s="84"/>
     </row>
     <row r="196" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="134"/>
-      <c r="B196" s="134"/>
-      <c r="C196" s="134"/>
+      <c r="A196" s="116"/>
+      <c r="B196" s="116"/>
+      <c r="C196" s="116"/>
       <c r="D196" s="80">
         <v>4</v>
       </c>
       <c r="E196" s="80" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F196" s="81" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G196" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H196" s="80"/>
       <c r="I196" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J196" s="91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K196" s="89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L196" s="90"/>
       <c r="M196" s="90"/>
@@ -8771,17 +8816,17 @@
       <c r="W196" s="84"/>
     </row>
     <row r="197" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="134"/>
-      <c r="B197" s="134"/>
-      <c r="C197" s="134"/>
+      <c r="A197" s="116"/>
+      <c r="B197" s="116"/>
+      <c r="C197" s="116"/>
       <c r="D197" s="80">
         <v>5</v>
       </c>
       <c r="E197" s="80" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F197" s="81" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G197" s="80" t="s">
         <v>29</v>
@@ -8806,17 +8851,17 @@
       <c r="W197" s="84"/>
     </row>
     <row r="198" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="134"/>
-      <c r="B198" s="134"/>
-      <c r="C198" s="134"/>
+      <c r="A198" s="116"/>
+      <c r="B198" s="116"/>
+      <c r="C198" s="116"/>
       <c r="D198" s="80">
         <v>6</v>
       </c>
       <c r="E198" s="80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F198" s="81" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G198" s="80" t="s">
         <v>29</v>
@@ -8841,20 +8886,20 @@
       <c r="W198" s="84"/>
     </row>
     <row r="199" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="134"/>
-      <c r="B199" s="134"/>
-      <c r="C199" s="134"/>
+      <c r="A199" s="116"/>
+      <c r="B199" s="116"/>
+      <c r="C199" s="116"/>
       <c r="D199" s="80">
         <v>7</v>
       </c>
       <c r="E199" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F199" s="81" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G199" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H199" s="80"/>
       <c r="I199" s="80" t="s">
@@ -8876,20 +8921,20 @@
       <c r="W199" s="84"/>
     </row>
     <row r="200" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="134"/>
-      <c r="B200" s="134"/>
-      <c r="C200" s="134"/>
+      <c r="A200" s="116"/>
+      <c r="B200" s="116"/>
+      <c r="C200" s="116"/>
       <c r="D200" s="80">
         <v>8</v>
       </c>
       <c r="E200" s="80" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F200" s="81" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G200" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H200" s="80"/>
       <c r="I200" s="80" t="s">
@@ -8911,20 +8956,20 @@
       <c r="W200" s="84"/>
     </row>
     <row r="201" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="134"/>
-      <c r="B201" s="134"/>
-      <c r="C201" s="134"/>
+      <c r="A201" s="116"/>
+      <c r="B201" s="116"/>
+      <c r="C201" s="116"/>
       <c r="D201" s="80">
         <v>9</v>
       </c>
       <c r="E201" s="80" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F201" s="81" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G201" s="80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H201" s="80"/>
       <c r="I201" s="80" t="s">
@@ -8946,17 +8991,17 @@
       <c r="W201" s="84"/>
     </row>
     <row r="202" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="134"/>
-      <c r="B202" s="134"/>
-      <c r="C202" s="134"/>
+      <c r="A202" s="116"/>
+      <c r="B202" s="116"/>
+      <c r="C202" s="116"/>
       <c r="D202" s="32">
         <v>10</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F202" s="93" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G202" s="32" t="s">
         <v>16</v>
@@ -8966,10 +9011,10 @@
         <v>18</v>
       </c>
       <c r="J202" s="91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K202" s="103" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L202" s="90"/>
       <c r="M202" s="90"/>
@@ -8985,20 +9030,20 @@
       <c r="W202" s="84"/>
     </row>
     <row r="203" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="134"/>
-      <c r="B203" s="134"/>
-      <c r="C203" s="134"/>
+      <c r="A203" s="116"/>
+      <c r="B203" s="116"/>
+      <c r="C203" s="116"/>
       <c r="D203" s="80">
         <v>12</v>
       </c>
       <c r="E203" s="80" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F203" s="94" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G203" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H203" s="80"/>
       <c r="I203" s="80" t="s">
@@ -9020,24 +9065,24 @@
       <c r="W203" s="84"/>
     </row>
     <row r="204" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="134"/>
-      <c r="B204" s="134"/>
-      <c r="C204" s="134"/>
+      <c r="A204" s="116"/>
+      <c r="B204" s="116"/>
+      <c r="C204" s="116"/>
       <c r="D204" s="95">
         <v>13</v>
       </c>
       <c r="E204" s="96" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F204" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H204" s="32"/>
       <c r="I204" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J204" s="104"/>
       <c r="K204" s="89"/>
@@ -9055,20 +9100,20 @@
       <c r="W204" s="84"/>
     </row>
     <row r="205" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="134"/>
-      <c r="B205" s="134"/>
-      <c r="C205" s="134"/>
+      <c r="A205" s="116"/>
+      <c r="B205" s="116"/>
+      <c r="C205" s="116"/>
       <c r="D205" s="95">
         <v>14</v>
       </c>
       <c r="E205" s="96" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F205" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G205" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H205" s="97"/>
       <c r="I205" s="32" t="s">
@@ -9090,17 +9135,17 @@
       <c r="W205" s="84"/>
     </row>
     <row r="206" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="134"/>
-      <c r="B206" s="134"/>
-      <c r="C206" s="134"/>
+      <c r="A206" s="116"/>
+      <c r="B206" s="116"/>
+      <c r="C206" s="116"/>
       <c r="D206" s="95">
         <v>15</v>
       </c>
       <c r="E206" s="96" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F206" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G206" s="32" t="s">
         <v>29</v>
@@ -9125,30 +9170,30 @@
       <c r="W206" s="84"/>
     </row>
     <row r="207" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="134"/>
-      <c r="B207" s="134"/>
-      <c r="C207" s="134"/>
+      <c r="A207" s="116"/>
+      <c r="B207" s="116"/>
+      <c r="C207" s="116"/>
       <c r="D207" s="95">
         <v>16</v>
       </c>
       <c r="E207" s="96" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F207" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G207" s="97" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H207" s="97"/>
       <c r="I207" s="32" t="s">
         <v>18</v>
       </c>
       <c r="J207" s="104" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K207" s="89" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L207" s="90"/>
       <c r="M207" s="90"/>
@@ -9214,23 +9259,23 @@
       <c r="W209" s="84"/>
     </row>
     <row r="210" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="135">
+      <c r="A210" s="134">
         <v>5</v>
       </c>
-      <c r="B210" s="137" t="s">
-        <v>365</v>
-      </c>
-      <c r="C210" s="137" t="s">
-        <v>366</v>
+      <c r="B210" s="107" t="s">
+        <v>361</v>
+      </c>
+      <c r="C210" s="107" t="s">
+        <v>362</v>
       </c>
       <c r="D210" s="80">
         <v>1</v>
       </c>
       <c r="E210" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F210" s="80" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G210" s="80" t="s">
         <v>16</v>
@@ -9257,20 +9302,20 @@
       <c r="W210" s="84"/>
     </row>
     <row r="211" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="135"/>
-      <c r="B211" s="138"/>
-      <c r="C211" s="138"/>
+      <c r="A211" s="134"/>
+      <c r="B211" s="108"/>
+      <c r="C211" s="108"/>
       <c r="D211" s="80">
         <v>2</v>
       </c>
       <c r="E211" s="80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F211" s="80" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G211" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H211" s="80"/>
       <c r="I211" s="80" t="s">
@@ -9292,20 +9337,20 @@
       <c r="W211" s="84"/>
     </row>
     <row r="212" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="135"/>
-      <c r="B212" s="138"/>
-      <c r="C212" s="138"/>
+      <c r="A212" s="134"/>
+      <c r="B212" s="108"/>
+      <c r="C212" s="108"/>
       <c r="D212" s="80">
         <v>3</v>
       </c>
       <c r="E212" s="80" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F212" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G212" s="80" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H212" s="80"/>
       <c r="I212" s="80" t="s">
@@ -9327,20 +9372,20 @@
       <c r="W212" s="84"/>
     </row>
     <row r="213" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="135"/>
-      <c r="B213" s="138"/>
-      <c r="C213" s="138"/>
+      <c r="A213" s="134"/>
+      <c r="B213" s="108"/>
+      <c r="C213" s="108"/>
       <c r="D213" s="80">
         <v>4</v>
       </c>
       <c r="E213" s="80" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F213" s="80" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G213" s="80" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H213" s="80"/>
       <c r="I213" s="80" t="s">
@@ -9362,17 +9407,17 @@
       <c r="W213" s="84"/>
     </row>
     <row r="214" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="135"/>
-      <c r="B214" s="138"/>
-      <c r="C214" s="138"/>
+      <c r="A214" s="134"/>
+      <c r="B214" s="108"/>
+      <c r="C214" s="108"/>
       <c r="D214" s="32">
         <v>5</v>
       </c>
       <c r="E214" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F214" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G214" s="32" t="s">
         <v>16</v>
@@ -9382,10 +9427,10 @@
         <v>18</v>
       </c>
       <c r="J214" s="88" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K214" s="103" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L214" s="90"/>
       <c r="M214" s="90"/>
@@ -9401,27 +9446,27 @@
       <c r="W214" s="84"/>
     </row>
     <row r="215" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="135"/>
-      <c r="B215" s="138"/>
-      <c r="C215" s="138"/>
+      <c r="A215" s="134"/>
+      <c r="B215" s="108"/>
+      <c r="C215" s="108"/>
       <c r="D215" s="32">
         <v>7</v>
       </c>
       <c r="E215" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F215" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G215" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H215" s="32"/>
       <c r="I215" s="32" t="s">
         <v>18</v>
       </c>
       <c r="J215" s="88" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K215" s="89"/>
       <c r="L215" s="90"/>
@@ -9438,27 +9483,27 @@
       <c r="W215" s="84"/>
     </row>
     <row r="216" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="135"/>
-      <c r="B216" s="138"/>
-      <c r="C216" s="138"/>
+      <c r="A216" s="134"/>
+      <c r="B216" s="108"/>
+      <c r="C216" s="108"/>
       <c r="D216" s="80">
         <v>8</v>
       </c>
       <c r="E216" s="80" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F216" s="80" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G216" s="80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H216" s="80"/>
       <c r="I216" s="80" t="s">
         <v>18</v>
       </c>
       <c r="J216" s="88" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K216" s="89"/>
       <c r="L216" s="90"/>
@@ -9475,17 +9520,17 @@
       <c r="W216" s="84"/>
     </row>
     <row r="217" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="135"/>
-      <c r="B217" s="139"/>
-      <c r="C217" s="139"/>
+      <c r="A217" s="134"/>
+      <c r="B217" s="109"/>
+      <c r="C217" s="109"/>
       <c r="D217" s="32">
         <v>9</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F217" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G217" s="32" t="s">
         <v>29</v>
@@ -9560,23 +9605,23 @@
       <c r="W219" s="84"/>
     </row>
     <row r="220" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="133">
+      <c r="A220" s="115">
         <v>6</v>
       </c>
-      <c r="B220" s="137" t="s">
-        <v>385</v>
-      </c>
-      <c r="C220" s="137" t="s">
-        <v>386</v>
+      <c r="B220" s="107" t="s">
+        <v>381</v>
+      </c>
+      <c r="C220" s="107" t="s">
+        <v>382</v>
       </c>
       <c r="D220" s="80">
         <v>1</v>
       </c>
       <c r="E220" s="80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F220" s="80" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G220" s="80" t="s">
         <v>16</v>
@@ -9603,20 +9648,20 @@
       <c r="W220" s="84"/>
     </row>
     <row r="221" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="134"/>
-      <c r="B221" s="138"/>
-      <c r="C221" s="138"/>
+      <c r="A221" s="116"/>
+      <c r="B221" s="108"/>
+      <c r="C221" s="108"/>
       <c r="D221" s="80">
         <v>2</v>
       </c>
       <c r="E221" s="80" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F221" s="80" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G221" s="80" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H221" s="80"/>
       <c r="I221" s="80" t="s">
@@ -9638,20 +9683,20 @@
       <c r="W221" s="84"/>
     </row>
     <row r="222" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="134"/>
-      <c r="B222" s="138"/>
-      <c r="C222" s="138"/>
+      <c r="A222" s="116"/>
+      <c r="B222" s="108"/>
+      <c r="C222" s="108"/>
       <c r="D222" s="80">
         <v>3</v>
       </c>
       <c r="E222" s="80" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F222" s="80" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G222" s="80" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H222" s="80"/>
       <c r="I222" s="80" t="s">
@@ -9673,17 +9718,17 @@
       <c r="W222" s="84"/>
     </row>
     <row r="223" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="134"/>
-      <c r="B223" s="138"/>
-      <c r="C223" s="138"/>
+      <c r="A223" s="116"/>
+      <c r="B223" s="108"/>
+      <c r="C223" s="108"/>
       <c r="D223" s="80">
         <v>4</v>
       </c>
       <c r="E223" s="80" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F223" s="80" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G223" s="80" t="s">
         <v>16</v>
@@ -9693,7 +9738,7 @@
         <v>18</v>
       </c>
       <c r="J223" s="88" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K223" s="89"/>
       <c r="L223" s="90"/>
@@ -9710,20 +9755,20 @@
       <c r="W223" s="84"/>
     </row>
     <row r="224" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="134"/>
-      <c r="B224" s="138"/>
-      <c r="C224" s="138"/>
+      <c r="A224" s="116"/>
+      <c r="B224" s="108"/>
+      <c r="C224" s="108"/>
       <c r="D224" s="80">
         <v>5</v>
       </c>
       <c r="E224" s="80" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F224" s="80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G224" s="80" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H224" s="80"/>
       <c r="I224" s="80" t="s">
@@ -9745,17 +9790,17 @@
       <c r="W224" s="84"/>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A225" s="136"/>
-      <c r="B225" s="139"/>
-      <c r="C225" s="139"/>
+      <c r="A225" s="117"/>
+      <c r="B225" s="109"/>
+      <c r="C225" s="109"/>
       <c r="D225" s="100">
         <v>6</v>
       </c>
       <c r="E225" s="100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F225" s="101" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G225" s="74" t="s">
         <v>29</v>
@@ -9971,6 +10016,79 @@
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="A144:A152"/>
+    <mergeCell ref="A155:A160"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A193:A207"/>
+    <mergeCell ref="A210:A217"/>
+    <mergeCell ref="A220:A225"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B59"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B109:B117"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B144:B152"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B179:B182"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="B193:B207"/>
+    <mergeCell ref="B210:B217"/>
+    <mergeCell ref="B220:B225"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C49:C59"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C155:C160"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C99:C105"/>
+    <mergeCell ref="C109:C117"/>
     <mergeCell ref="C210:C217"/>
     <mergeCell ref="C220:C225"/>
     <mergeCell ref="K62:K66"/>
@@ -9987,82 +10105,9 @@
     <mergeCell ref="C129:C132"/>
     <mergeCell ref="C135:C141"/>
     <mergeCell ref="C144:C152"/>
-    <mergeCell ref="C155:C160"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C99:C105"/>
-    <mergeCell ref="C109:C117"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C49:C59"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="B193:B207"/>
-    <mergeCell ref="B210:B217"/>
-    <mergeCell ref="B220:B225"/>
-    <mergeCell ref="B135:B141"/>
-    <mergeCell ref="B144:B152"/>
-    <mergeCell ref="B155:B160"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B109:B117"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A193:A207"/>
-    <mergeCell ref="A210:A217"/>
-    <mergeCell ref="A220:A225"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B59"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="A144:A152"/>
-    <mergeCell ref="A155:A160"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A135:A141"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A49:A59"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A92:A96"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档资料/车辆管理数据库.xlsx
+++ b/文档资料/车辆管理数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="中环知识库管理系统" sheetId="9" r:id="rId1"/>
@@ -898,31 +898,31 @@
     <t>系统设置记录id</t>
   </si>
   <si>
-    <t>settingName</t>
+    <t>sysName</t>
   </si>
   <si>
     <t>设置名字</t>
   </si>
   <si>
-    <t>用于向用户展示</t>
-  </si>
-  <si>
-    <t>setKey</t>
+    <t>用于向用户展示 ；将字段名settingName改为sysname</t>
+  </si>
+  <si>
+    <t>sysKey</t>
   </si>
   <si>
     <t xml:space="preserve">设置记录信息                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
   </si>
   <si>
-    <t>此处不是id，是设置的键值对中的键，用于系统中使用设置信息时的依据</t>
-  </si>
-  <si>
-    <t>value</t>
+    <t>此处不是id，是设置的键值对中的键，用于系统中使用设置信息时的依据；将字段名setKey改为sysKey</t>
+  </si>
+  <si>
+    <t>sysValue</t>
   </si>
   <si>
     <t>系统设置值</t>
   </si>
   <si>
-    <t>系统设置的值</t>
+    <t>系统设置的值；将字段名value改为sysValue</t>
   </si>
   <si>
     <t>modifyPerson</t>
@@ -1233,10 +1233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1274,14 +1274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
@@ -1290,32 +1282,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="黑体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1327,22 +1297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,9 +1320,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,7 +1358,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,31 +1381,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="黑体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="黑体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,78 +1463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1553,7 +1481,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,25 +1595,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,43 +1637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,6 +1817,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1832,17 +1882,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,60 +1914,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1932,133 +1932,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2845,10 +2845,10 @@
   <sheetPr/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -8242,7 +8242,7 @@
       <c r="D165" s="103">
         <v>2</v>
       </c>
-      <c r="E165" s="104" t="s">
+      <c r="E165" s="41" t="s">
         <v>290</v>
       </c>
       <c r="F165" s="104" t="s">
@@ -8279,7 +8279,7 @@
       <c r="D166" s="103">
         <v>3</v>
       </c>
-      <c r="E166" s="104" t="s">
+      <c r="E166" s="41" t="s">
         <v>293</v>
       </c>
       <c r="F166" s="106" t="s">
@@ -8316,7 +8316,7 @@
       <c r="D167" s="103">
         <v>4</v>
       </c>
-      <c r="E167" s="104" t="s">
+      <c r="E167" s="41" t="s">
         <v>296</v>
       </c>
       <c r="F167" s="104" t="s">

--- a/文档资料/车辆管理数据库.xlsx
+++ b/文档资料/车辆管理数据库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>序号</t>
   </si>
@@ -887,6 +887,9 @@
   </si>
   <si>
     <t>投保内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
   <si>
     <t>syssetting_form</t>
@@ -1233,10 +1236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1275,7 +1278,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,30 +1322,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="黑体"/>
       <charset val="134"/>
@@ -1321,24 +1330,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="黑体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,7 +1344,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1380,18 +1390,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="黑体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1403,16 +1413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,7 +1466,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1475,49 +1598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,37 +1622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,79 +1646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,6 +1820,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1841,17 +1859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1863,6 +1875,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,40 +1917,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1932,133 +1935,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2845,10 +2848,10 @@
   <sheetPr/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K167" sqref="K167"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -8168,7 +8171,7 @@
     </row>
     <row r="163" spans="1:23">
       <c r="A163" s="100" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="B163" s="101"/>
       <c r="C163" s="101"/>
@@ -8197,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C164" s="102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D164" s="103">
         <v>1</v>
@@ -8209,7 +8212,7 @@
         <v>33</v>
       </c>
       <c r="F164" s="104" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G164" s="104" t="s">
         <v>17</v>
@@ -8243,10 +8246,10 @@
         <v>2</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F165" s="104" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G165" s="104" t="s">
         <v>42</v>
@@ -8257,7 +8260,7 @@
       </c>
       <c r="J165" s="115"/>
       <c r="K165" s="116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L165" s="117"/>
       <c r="M165" s="117"/>
@@ -8280,10 +8283,10 @@
         <v>3</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F166" s="106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G166" s="104" t="s">
         <v>42</v>
@@ -8294,7 +8297,7 @@
       </c>
       <c r="J166" s="118"/>
       <c r="K166" s="116" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L166" s="117"/>
       <c r="M166" s="117"/>
@@ -8317,10 +8320,10 @@
         <v>4</v>
       </c>
       <c r="E167" s="41" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F167" s="104" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G167" s="104" t="s">
         <v>42</v>
@@ -8331,7 +8334,7 @@
       </c>
       <c r="J167" s="115"/>
       <c r="K167" s="116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L167" s="117"/>
       <c r="M167" s="117"/>
@@ -8354,10 +8357,10 @@
         <v>5</v>
       </c>
       <c r="E168" s="104" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F168" s="104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G168" s="104" t="s">
         <v>42</v>
@@ -8389,7 +8392,7 @@
         <v>6</v>
       </c>
       <c r="E169" s="104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F169" s="104" t="s">
         <v>29</v>
@@ -8424,10 +8427,10 @@
         <v>7</v>
       </c>
       <c r="E170" s="104" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F170" s="104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G170" s="104" t="s">
         <v>101</v>
@@ -8463,7 +8466,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="107" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F171" s="104" t="s">
         <v>9</v>
@@ -8543,19 +8546,19 @@
         <v>2</v>
       </c>
       <c r="B174" s="105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C174" s="105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D174" s="104">
         <v>1</v>
       </c>
       <c r="E174" s="104" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F174" s="104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G174" s="107" t="s">
         <v>17</v>
@@ -8592,7 +8595,7 @@
         <v>37</v>
       </c>
       <c r="F175" s="104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G175" s="104" t="s">
         <v>42</v>
@@ -8624,7 +8627,7 @@
         <v>3</v>
       </c>
       <c r="E176" s="104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F176" s="104" t="s">
         <v>46</v>
@@ -8706,10 +8709,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="105" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C179" s="105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D179" s="104">
         <v>1</v>
@@ -8718,7 +8721,7 @@
         <v>33</v>
       </c>
       <c r="F179" s="104" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G179" s="104" t="s">
         <v>17</v>
@@ -8755,7 +8758,7 @@
         <v>37</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G180" s="104" t="s">
         <v>42</v>
@@ -8787,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F181" s="104" t="s">
         <v>46</v>
@@ -8822,10 +8825,10 @@
         <v>4</v>
       </c>
       <c r="E182" s="104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F182" s="104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G182" s="104" t="s">
         <v>17</v>
@@ -8835,7 +8838,7 @@
         <v>19</v>
       </c>
       <c r="J182" s="115" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K182" s="116"/>
       <c r="L182" s="117"/>
@@ -8857,18 +8860,18 @@
       <c r="C183" s="110"/>
       <c r="D183" s="104"/>
       <c r="E183" s="104" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F183" s="104" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G183" s="104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H183" s="104"/>
       <c r="I183" s="104"/>
       <c r="J183" s="115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K183" s="116"/>
       <c r="L183" s="117"/>
@@ -8937,10 +8940,10 @@
         <v>50</v>
       </c>
       <c r="B186" s="102" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C186" s="102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D186" s="103">
         <v>1</v>
@@ -8962,7 +8965,7 @@
       </c>
       <c r="J186" s="115"/>
       <c r="K186" s="116" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L186" s="117"/>
       <c r="M186" s="117"/>
@@ -8985,10 +8988,10 @@
         <v>2</v>
       </c>
       <c r="E187" s="103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F187" s="104" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G187" s="104" t="s">
         <v>17</v>
@@ -9022,10 +9025,10 @@
         <v>3</v>
       </c>
       <c r="E188" s="103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F188" s="104" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G188" s="104" t="s">
         <v>17</v>
@@ -9059,10 +9062,10 @@
         <v>4</v>
       </c>
       <c r="E189" s="103" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F189" s="104" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G189" s="104" t="s">
         <v>17</v>
@@ -9096,23 +9099,23 @@
         <v>5</v>
       </c>
       <c r="E190" s="37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F190" s="38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G190" s="38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H190" s="38"/>
       <c r="I190" s="38" t="s">
         <v>19</v>
       </c>
       <c r="J190" s="115" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K190" s="116" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L190" s="117"/>
       <c r="M190" s="117"/>
@@ -9181,10 +9184,10 @@
         <v>4</v>
       </c>
       <c r="B193" s="102" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C193" s="102" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D193" s="104">
         <v>1</v>
@@ -9193,7 +9196,7 @@
         <v>33</v>
       </c>
       <c r="F193" s="104" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G193" s="119" t="s">
         <v>17</v>
@@ -9227,7 +9230,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="104" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F194" s="106" t="s">
         <v>38</v>
@@ -9241,7 +9244,7 @@
       </c>
       <c r="J194" s="118"/>
       <c r="K194" s="116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L194" s="117"/>
       <c r="M194" s="117"/>
@@ -9264,10 +9267,10 @@
         <v>3</v>
       </c>
       <c r="E195" s="104" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F195" s="106" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G195" s="104" t="s">
         <v>42</v>
@@ -9303,10 +9306,10 @@
         <v>4</v>
       </c>
       <c r="E196" s="104" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F196" s="106" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G196" s="104" t="s">
         <v>42</v>
@@ -9342,10 +9345,10 @@
         <v>5</v>
       </c>
       <c r="E197" s="104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F197" s="106" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G197" s="104" t="s">
         <v>30</v>
@@ -9380,7 +9383,7 @@
         <v>159</v>
       </c>
       <c r="F198" s="106" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G198" s="104" t="s">
         <v>30</v>
@@ -9412,10 +9415,10 @@
         <v>7</v>
       </c>
       <c r="E199" s="104" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F199" s="106" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G199" s="104" t="s">
         <v>42</v>
@@ -9447,13 +9450,13 @@
         <v>8</v>
       </c>
       <c r="E200" s="104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F200" s="106" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G200" s="104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H200" s="104"/>
       <c r="I200" s="104" t="s">
@@ -9482,10 +9485,10 @@
         <v>9</v>
       </c>
       <c r="E201" s="104" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F201" s="106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G201" s="104" t="s">
         <v>104</v>
@@ -9517,10 +9520,10 @@
         <v>10</v>
       </c>
       <c r="E202" s="38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F202" s="120" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G202" s="38" t="s">
         <v>17</v>
@@ -9530,10 +9533,10 @@
         <v>19</v>
       </c>
       <c r="J202" s="118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K202" s="133" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L202" s="117"/>
       <c r="M202" s="117"/>
@@ -9556,10 +9559,10 @@
         <v>12</v>
       </c>
       <c r="E203" s="104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F203" s="121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G203" s="104" t="s">
         <v>42</v>
@@ -9591,10 +9594,10 @@
         <v>13</v>
       </c>
       <c r="E204" s="123" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F204" s="38" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G204" s="38" t="s">
         <v>39</v>
@@ -9626,10 +9629,10 @@
         <v>14</v>
       </c>
       <c r="E205" s="123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F205" s="38" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G205" s="38" t="s">
         <v>42</v>
@@ -9661,10 +9664,10 @@
         <v>15</v>
       </c>
       <c r="E206" s="123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F206" s="38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G206" s="38" t="s">
         <v>30</v>
@@ -9696,20 +9699,20 @@
         <v>16</v>
       </c>
       <c r="E207" s="123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F207" s="38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G207" s="124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H207" s="124"/>
       <c r="I207" s="38" t="s">
         <v>19</v>
       </c>
       <c r="J207" s="134" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K207" s="116" t="s">
         <v>249</v>
@@ -9782,10 +9785,10 @@
         <v>5</v>
       </c>
       <c r="B210" s="127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C210" s="127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D210" s="104">
         <v>1</v>
@@ -9794,7 +9797,7 @@
         <v>33</v>
       </c>
       <c r="F210" s="104" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G210" s="104" t="s">
         <v>17</v>
@@ -9828,10 +9831,10 @@
         <v>2</v>
       </c>
       <c r="E211" s="104" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F211" s="104" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G211" s="104" t="s">
         <v>42</v>
@@ -9863,10 +9866,10 @@
         <v>3</v>
       </c>
       <c r="E212" s="104" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G212" s="104" t="s">
         <v>208</v>
@@ -9898,10 +9901,10 @@
         <v>4</v>
       </c>
       <c r="E213" s="104" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F213" s="104" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G213" s="104" t="s">
         <v>208</v>
@@ -9933,10 +9936,10 @@
         <v>5</v>
       </c>
       <c r="E214" s="38" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F214" s="38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G214" s="38" t="s">
         <v>17</v>
@@ -9946,10 +9949,10 @@
         <v>19</v>
       </c>
       <c r="J214" s="115" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K214" s="133" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L214" s="117"/>
       <c r="M214" s="117"/>
@@ -9975,7 +9978,7 @@
         <v>255</v>
       </c>
       <c r="F215" s="38" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G215" s="38" t="s">
         <v>42</v>
@@ -9985,7 +9988,7 @@
         <v>19</v>
       </c>
       <c r="J215" s="115" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K215" s="116"/>
       <c r="L215" s="117"/>
@@ -10009,10 +10012,10 @@
         <v>8</v>
       </c>
       <c r="E216" s="104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F216" s="104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G216" s="104" t="s">
         <v>42</v>
@@ -10022,7 +10025,7 @@
         <v>19</v>
       </c>
       <c r="J216" s="115" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K216" s="116"/>
       <c r="L216" s="117"/>
@@ -10046,10 +10049,10 @@
         <v>9</v>
       </c>
       <c r="E217" s="38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F217" s="38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G217" s="38" t="s">
         <v>30</v>
@@ -10128,10 +10131,10 @@
         <v>6</v>
       </c>
       <c r="B220" s="127" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C220" s="127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D220" s="104">
         <v>1</v>
@@ -10140,7 +10143,7 @@
         <v>33</v>
       </c>
       <c r="F220" s="104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G220" s="104" t="s">
         <v>17</v>
@@ -10174,10 +10177,10 @@
         <v>2</v>
       </c>
       <c r="E221" s="104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F221" s="104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G221" s="104" t="s">
         <v>208</v>
@@ -10209,10 +10212,10 @@
         <v>3</v>
       </c>
       <c r="E222" s="104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F222" s="104" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G222" s="104" t="s">
         <v>208</v>
@@ -10244,10 +10247,10 @@
         <v>4</v>
       </c>
       <c r="E223" s="104" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F223" s="104" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G223" s="104" t="s">
         <v>17</v>
@@ -10257,7 +10260,7 @@
         <v>19</v>
       </c>
       <c r="J223" s="115" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K223" s="116"/>
       <c r="L223" s="117"/>
@@ -10281,13 +10284,13 @@
         <v>5</v>
       </c>
       <c r="E224" s="104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F224" s="104" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G224" s="104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H224" s="104"/>
       <c r="I224" s="104" t="s">
@@ -10319,7 +10322,7 @@
         <v>159</v>
       </c>
       <c r="F225" s="131" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G225" s="95" t="s">
         <v>30</v>

--- a/文档资料/车辆管理数据库.xlsx
+++ b/文档资料/车辆管理数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="中环知识库管理系统" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>序号</t>
   </si>
@@ -928,10 +928,13 @@
     <t>系统设置的值；将字段名value改为sysValue</t>
   </si>
   <si>
-    <t>modifyPerson</t>
-  </si>
-  <si>
-    <t>修改人</t>
+    <t>modifyPersonId</t>
+  </si>
+  <si>
+    <t>修改人id</t>
+  </si>
+  <si>
+    <t>字段名由modifyPerson改为modifyPerson</t>
   </si>
   <si>
     <t>modifyTime</t>
@@ -1236,10 +1239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1278,13 +1281,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="黑体"/>
       <charset val="0"/>
@@ -1292,7 +1288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,17 +1303,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="黑体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="黑体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1333,6 +1352,22 @@
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="黑体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="黑体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,48 +1401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="黑体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="黑体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1418,6 +1413,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="黑体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="黑体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1466,7 +1469,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,49 +1613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,85 +1637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,31 +1649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,6 +1823,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1838,30 +1876,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1870,26 +1884,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,11 +1906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1923,10 +1926,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1935,133 +1938,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2849,9 +2852,9 @@
   <dimension ref="A1:W233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
+      <selection pane="bottomLeft" activeCell="K168" sqref="K168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -8356,10 +8359,10 @@
       <c r="D168" s="103">
         <v>5</v>
       </c>
-      <c r="E168" s="104" t="s">
+      <c r="E168" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="F168" s="104" t="s">
+      <c r="F168" s="41" t="s">
         <v>301</v>
       </c>
       <c r="G168" s="104" t="s">
@@ -8370,7 +8373,9 @@
         <v>19</v>
       </c>
       <c r="J168" s="115"/>
-      <c r="K168" s="116"/>
+      <c r="K168" s="116" t="s">
+        <v>302</v>
+      </c>
       <c r="L168" s="117"/>
       <c r="M168" s="117"/>
       <c r="N168" s="117"/>
@@ -8392,7 +8397,7 @@
         <v>6</v>
       </c>
       <c r="E169" s="104" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F169" s="104" t="s">
         <v>29</v>
@@ -8427,10 +8432,10 @@
         <v>7</v>
       </c>
       <c r="E170" s="104" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F170" s="104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G170" s="104" t="s">
         <v>101</v>
@@ -8466,7 +8471,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="107" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F171" s="104" t="s">
         <v>9</v>
@@ -8546,19 +8551,19 @@
         <v>2</v>
       </c>
       <c r="B174" s="105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C174" s="105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D174" s="104">
         <v>1</v>
       </c>
       <c r="E174" s="104" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F174" s="104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G174" s="107" t="s">
         <v>17</v>
@@ -8595,7 +8600,7 @@
         <v>37</v>
       </c>
       <c r="F175" s="104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G175" s="104" t="s">
         <v>42</v>
@@ -8627,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="E176" s="104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F176" s="104" t="s">
         <v>46</v>
@@ -8709,10 +8714,10 @@
         <v>3</v>
       </c>
       <c r="B179" s="105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C179" s="105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D179" s="104">
         <v>1</v>
@@ -8721,7 +8726,7 @@
         <v>33</v>
       </c>
       <c r="F179" s="104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G179" s="104" t="s">
         <v>17</v>
@@ -8758,7 +8763,7 @@
         <v>37</v>
       </c>
       <c r="F180" s="104" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G180" s="104" t="s">
         <v>42</v>
@@ -8790,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F181" s="104" t="s">
         <v>46</v>
@@ -8825,10 +8830,10 @@
         <v>4</v>
       </c>
       <c r="E182" s="104" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F182" s="104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G182" s="104" t="s">
         <v>17</v>
@@ -8838,7 +8843,7 @@
         <v>19</v>
       </c>
       <c r="J182" s="115" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K182" s="116"/>
       <c r="L182" s="117"/>
@@ -8860,18 +8865,18 @@
       <c r="C183" s="110"/>
       <c r="D183" s="104"/>
       <c r="E183" s="104" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F183" s="104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G183" s="104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H183" s="104"/>
       <c r="I183" s="104"/>
       <c r="J183" s="115" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K183" s="116"/>
       <c r="L183" s="117"/>
@@ -8940,10 +8945,10 @@
         <v>50</v>
       </c>
       <c r="B186" s="102" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C186" s="102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D186" s="103">
         <v>1</v>
@@ -8965,7 +8970,7 @@
       </c>
       <c r="J186" s="115"/>
       <c r="K186" s="116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L186" s="117"/>
       <c r="M186" s="117"/>
@@ -8988,10 +8993,10 @@
         <v>2</v>
       </c>
       <c r="E187" s="103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F187" s="104" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G187" s="104" t="s">
         <v>17</v>
@@ -9025,10 +9030,10 @@
         <v>3</v>
       </c>
       <c r="E188" s="103" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F188" s="104" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G188" s="104" t="s">
         <v>17</v>
@@ -9062,10 +9067,10 @@
         <v>4</v>
       </c>
       <c r="E189" s="103" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F189" s="104" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G189" s="104" t="s">
         <v>17</v>
@@ -9099,23 +9104,23 @@
         <v>5</v>
       </c>
       <c r="E190" s="37" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F190" s="38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G190" s="38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H190" s="38"/>
       <c r="I190" s="38" t="s">
         <v>19</v>
       </c>
       <c r="J190" s="115" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K190" s="116" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L190" s="117"/>
       <c r="M190" s="117"/>
@@ -9184,10 +9189,10 @@
         <v>4</v>
       </c>
       <c r="B193" s="102" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C193" s="102" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D193" s="104">
         <v>1</v>
@@ -9196,7 +9201,7 @@
         <v>33</v>
       </c>
       <c r="F193" s="104" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G193" s="119" t="s">
         <v>17</v>
@@ -9230,7 +9235,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="104" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F194" s="106" t="s">
         <v>38</v>
@@ -9244,7 +9249,7 @@
       </c>
       <c r="J194" s="118"/>
       <c r="K194" s="116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L194" s="117"/>
       <c r="M194" s="117"/>
@@ -9267,10 +9272,10 @@
         <v>3</v>
       </c>
       <c r="E195" s="104" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F195" s="106" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G195" s="104" t="s">
         <v>42</v>
@@ -9306,10 +9311,10 @@
         <v>4</v>
       </c>
       <c r="E196" s="104" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F196" s="106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G196" s="104" t="s">
         <v>42</v>
@@ -9345,10 +9350,10 @@
         <v>5</v>
       </c>
       <c r="E197" s="104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F197" s="106" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G197" s="104" t="s">
         <v>30</v>
@@ -9383,7 +9388,7 @@
         <v>159</v>
       </c>
       <c r="F198" s="106" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G198" s="104" t="s">
         <v>30</v>
@@ -9415,10 +9420,10 @@
         <v>7</v>
       </c>
       <c r="E199" s="104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F199" s="106" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G199" s="104" t="s">
         <v>42</v>
@@ -9450,13 +9455,13 @@
         <v>8</v>
       </c>
       <c r="E200" s="104" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F200" s="106" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G200" s="104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H200" s="104"/>
       <c r="I200" s="104" t="s">
@@ -9485,10 +9490,10 @@
         <v>9</v>
       </c>
       <c r="E201" s="104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F201" s="106" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G201" s="104" t="s">
         <v>104</v>
@@ -9520,10 +9525,10 @@
         <v>10</v>
       </c>
       <c r="E202" s="38" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F202" s="120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G202" s="38" t="s">
         <v>17</v>
@@ -9533,10 +9538,10 @@
         <v>19</v>
       </c>
       <c r="J202" s="118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K202" s="133" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L202" s="117"/>
       <c r="M202" s="117"/>
@@ -9559,10 +9564,10 @@
         <v>12</v>
       </c>
       <c r="E203" s="104" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F203" s="121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G203" s="104" t="s">
         <v>42</v>
@@ -9594,10 +9599,10 @@
         <v>13</v>
       </c>
       <c r="E204" s="123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F204" s="38" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G204" s="38" t="s">
         <v>39</v>
@@ -9629,10 +9634,10 @@
         <v>14</v>
       </c>
       <c r="E205" s="123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F205" s="38" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G205" s="38" t="s">
         <v>42</v>
@@ -9664,10 +9669,10 @@
         <v>15</v>
       </c>
       <c r="E206" s="123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F206" s="38" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G206" s="38" t="s">
         <v>30</v>
@@ -9699,20 +9704,20 @@
         <v>16</v>
       </c>
       <c r="E207" s="123" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F207" s="38" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G207" s="124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H207" s="124"/>
       <c r="I207" s="38" t="s">
         <v>19</v>
       </c>
       <c r="J207" s="134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K207" s="116" t="s">
         <v>249</v>
@@ -9785,10 +9790,10 @@
         <v>5</v>
       </c>
       <c r="B210" s="127" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C210" s="127" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D210" s="104">
         <v>1</v>
@@ -9797,7 +9802,7 @@
         <v>33</v>
       </c>
       <c r="F210" s="104" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G210" s="104" t="s">
         <v>17</v>
@@ -9831,10 +9836,10 @@
         <v>2</v>
       </c>
       <c r="E211" s="104" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F211" s="104" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G211" s="104" t="s">
         <v>42</v>
@@ -9866,10 +9871,10 @@
         <v>3</v>
       </c>
       <c r="E212" s="104" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F212" s="104" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G212" s="104" t="s">
         <v>208</v>
@@ -9901,10 +9906,10 @@
         <v>4</v>
       </c>
       <c r="E213" s="104" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F213" s="104" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G213" s="104" t="s">
         <v>208</v>
@@ -9936,10 +9941,10 @@
         <v>5</v>
       </c>
       <c r="E214" s="38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F214" s="38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G214" s="38" t="s">
         <v>17</v>
@@ -9949,10 +9954,10 @@
         <v>19</v>
       </c>
       <c r="J214" s="115" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K214" s="133" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L214" s="117"/>
       <c r="M214" s="117"/>
@@ -9978,7 +9983,7 @@
         <v>255</v>
       </c>
       <c r="F215" s="38" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G215" s="38" t="s">
         <v>42</v>
@@ -9988,7 +9993,7 @@
         <v>19</v>
       </c>
       <c r="J215" s="115" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K215" s="116"/>
       <c r="L215" s="117"/>
@@ -10012,10 +10017,10 @@
         <v>8</v>
       </c>
       <c r="E216" s="104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F216" s="104" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G216" s="104" t="s">
         <v>42</v>
@@ -10025,7 +10030,7 @@
         <v>19</v>
       </c>
       <c r="J216" s="115" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K216" s="116"/>
       <c r="L216" s="117"/>
@@ -10049,10 +10054,10 @@
         <v>9</v>
       </c>
       <c r="E217" s="38" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F217" s="38" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G217" s="38" t="s">
         <v>30</v>
@@ -10131,10 +10136,10 @@
         <v>6</v>
       </c>
       <c r="B220" s="127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C220" s="127" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D220" s="104">
         <v>1</v>
@@ -10143,7 +10148,7 @@
         <v>33</v>
       </c>
       <c r="F220" s="104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G220" s="104" t="s">
         <v>17</v>
@@ -10177,10 +10182,10 @@
         <v>2</v>
       </c>
       <c r="E221" s="104" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F221" s="104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G221" s="104" t="s">
         <v>208</v>
@@ -10212,10 +10217,10 @@
         <v>3</v>
       </c>
       <c r="E222" s="104" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F222" s="104" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G222" s="104" t="s">
         <v>208</v>
@@ -10247,10 +10252,10 @@
         <v>4</v>
       </c>
       <c r="E223" s="104" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F223" s="104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G223" s="104" t="s">
         <v>17</v>
@@ -10260,7 +10265,7 @@
         <v>19</v>
       </c>
       <c r="J223" s="115" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K223" s="116"/>
       <c r="L223" s="117"/>
@@ -10284,13 +10289,13 @@
         <v>5</v>
       </c>
       <c r="E224" s="104" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F224" s="104" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G224" s="104" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H224" s="104"/>
       <c r="I224" s="104" t="s">
@@ -10322,7 +10327,7 @@
         <v>159</v>
       </c>
       <c r="F225" s="131" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G225" s="95" t="s">
         <v>30</v>
